--- a/yahoofinance/PFIX_yahoofin_historical_data.xlsx
+++ b/yahoofinance/PFIX_yahoofin_historical_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G699"/>
+  <dimension ref="A1:G720"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,7 +489,7 @@
         <v>50.02</v>
       </c>
       <c r="F2" t="n">
-        <v>26.223389</v>
+        <v>26.168085</v>
       </c>
       <c r="G2" t="n">
         <v>47300</v>
@@ -514,7 +514,7 @@
         <v>50.759998</v>
       </c>
       <c r="F3" t="n">
-        <v>26.611341</v>
+        <v>26.555218</v>
       </c>
       <c r="G3" t="n">
         <v>98400</v>
@@ -539,7 +539,7 @@
         <v>50.040001</v>
       </c>
       <c r="F4" t="n">
-        <v>26.233868</v>
+        <v>26.178547</v>
       </c>
       <c r="G4" t="n">
         <v>169400</v>
@@ -564,7 +564,7 @@
         <v>48.66</v>
       </c>
       <c r="F5" t="n">
-        <v>25.510395</v>
+        <v>25.456602</v>
       </c>
       <c r="G5" t="n">
         <v>161400</v>
@@ -589,7 +589,7 @@
         <v>48.349998</v>
       </c>
       <c r="F6" t="n">
-        <v>25.347876</v>
+        <v>25.294426</v>
       </c>
       <c r="G6" t="n">
         <v>180500</v>
@@ -614,7 +614,7 @@
         <v>48.419998</v>
       </c>
       <c r="F7" t="n">
-        <v>25.384575</v>
+        <v>25.331038</v>
       </c>
       <c r="G7" t="n">
         <v>106800</v>
@@ -639,7 +639,7 @@
         <v>50</v>
       </c>
       <c r="F8" t="n">
-        <v>26.212902</v>
+        <v>26.157627</v>
       </c>
       <c r="G8" t="n">
         <v>139000</v>
@@ -664,7 +664,7 @@
         <v>50.27</v>
       </c>
       <c r="F9" t="n">
-        <v>26.354452</v>
+        <v>26.298878</v>
       </c>
       <c r="G9" t="n">
         <v>129800</v>
@@ -689,7 +689,7 @@
         <v>50.380001</v>
       </c>
       <c r="F10" t="n">
-        <v>26.412119</v>
+        <v>26.356421</v>
       </c>
       <c r="G10" t="n">
         <v>81100</v>
@@ -714,7 +714,7 @@
         <v>50.290001</v>
       </c>
       <c r="F11" t="n">
-        <v>26.364941</v>
+        <v>26.309336</v>
       </c>
       <c r="G11" t="n">
         <v>66100</v>
@@ -739,7 +739,7 @@
         <v>49.450001</v>
       </c>
       <c r="F12" t="n">
-        <v>25.924561</v>
+        <v>25.869888</v>
       </c>
       <c r="G12" t="n">
         <v>83200</v>
@@ -764,7 +764,7 @@
         <v>49.549999</v>
       </c>
       <c r="F13" t="n">
-        <v>25.976986</v>
+        <v>25.922201</v>
       </c>
       <c r="G13" t="n">
         <v>68800</v>
@@ -789,7 +789,7 @@
         <v>49.310001</v>
       </c>
       <c r="F14" t="n">
-        <v>25.851164</v>
+        <v>25.796648</v>
       </c>
       <c r="G14" t="n">
         <v>66700</v>
@@ -814,7 +814,7 @@
         <v>48.893002</v>
       </c>
       <c r="F15" t="n">
-        <v>25.632551</v>
+        <v>25.578491</v>
       </c>
       <c r="G15" t="n">
         <v>72300</v>
@@ -839,7 +839,7 @@
         <v>48.619999</v>
       </c>
       <c r="F16" t="n">
-        <v>25.489422</v>
+        <v>25.435671</v>
       </c>
       <c r="G16" t="n">
         <v>99200</v>
@@ -864,7 +864,7 @@
         <v>47.619999</v>
       </c>
       <c r="F17" t="n">
-        <v>24.965166</v>
+        <v>24.912514</v>
       </c>
       <c r="G17" t="n">
         <v>83900</v>
@@ -889,7 +889,7 @@
         <v>47.5</v>
       </c>
       <c r="F18" t="n">
-        <v>24.902256</v>
+        <v>24.849743</v>
       </c>
       <c r="G18" t="n">
         <v>81500</v>
@@ -914,7 +914,7 @@
         <v>46.5</v>
       </c>
       <c r="F19" t="n">
-        <v>24.377998</v>
+        <v>24.326588</v>
       </c>
       <c r="G19" t="n">
         <v>66700</v>
@@ -939,7 +939,7 @@
         <v>46.240002</v>
       </c>
       <c r="F20" t="n">
-        <v>24.241695</v>
+        <v>24.190571</v>
       </c>
       <c r="G20" t="n">
         <v>50000</v>
@@ -964,7 +964,7 @@
         <v>45.650002</v>
       </c>
       <c r="F21" t="n">
-        <v>23.932381</v>
+        <v>23.88191</v>
       </c>
       <c r="G21" t="n">
         <v>70900</v>
@@ -989,7 +989,7 @@
         <v>45.404999</v>
       </c>
       <c r="F22" t="n">
-        <v>23.803932</v>
+        <v>23.753738</v>
       </c>
       <c r="G22" t="n">
         <v>79900</v>
@@ -1014,7 +1014,7 @@
         <v>44.650002</v>
       </c>
       <c r="F23" t="n">
-        <v>23.408121</v>
+        <v>23.358759</v>
       </c>
       <c r="G23" t="n">
         <v>72700</v>
@@ -1039,7 +1039,7 @@
         <v>44.75</v>
       </c>
       <c r="F24" t="n">
-        <v>23.460545</v>
+        <v>23.411076</v>
       </c>
       <c r="G24" t="n">
         <v>23800</v>
@@ -1064,7 +1064,7 @@
         <v>45.73</v>
       </c>
       <c r="F25" t="n">
-        <v>23.974319</v>
+        <v>23.923759</v>
       </c>
       <c r="G25" t="n">
         <v>61900</v>
@@ -1089,7 +1089,7 @@
         <v>45.709999</v>
       </c>
       <c r="F26" t="n">
-        <v>23.963839</v>
+        <v>23.913298</v>
       </c>
       <c r="G26" t="n">
         <v>77300</v>
@@ -1114,7 +1114,7 @@
         <v>45.549999</v>
       </c>
       <c r="F27" t="n">
-        <v>23.87995</v>
+        <v>23.829592</v>
       </c>
       <c r="G27" t="n">
         <v>91000</v>
@@ -1139,7 +1139,7 @@
         <v>44.512001</v>
       </c>
       <c r="F28" t="n">
-        <v>23.335775</v>
+        <v>23.286562</v>
       </c>
       <c r="G28" t="n">
         <v>71800</v>
@@ -1164,7 +1164,7 @@
         <v>42.514999</v>
       </c>
       <c r="F29" t="n">
-        <v>22.288828</v>
+        <v>22.241823</v>
       </c>
       <c r="G29" t="n">
         <v>80100</v>
@@ -1189,7 +1189,7 @@
         <v>44.007999</v>
       </c>
       <c r="F30" t="n">
-        <v>23.071547</v>
+        <v>23.02289</v>
       </c>
       <c r="G30" t="n">
         <v>51200</v>
@@ -1214,7 +1214,7 @@
         <v>43.254002</v>
       </c>
       <c r="F31" t="n">
-        <v>22.676258</v>
+        <v>22.628435</v>
       </c>
       <c r="G31" t="n">
         <v>20200</v>
@@ -1239,7 +1239,7 @@
         <v>42.952</v>
       </c>
       <c r="F32" t="n">
-        <v>22.517925</v>
+        <v>22.470444</v>
       </c>
       <c r="G32" t="n">
         <v>73000</v>
@@ -1264,7 +1264,7 @@
         <v>42.786999</v>
       </c>
       <c r="F33" t="n">
-        <v>22.431429</v>
+        <v>22.384123</v>
       </c>
       <c r="G33" t="n">
         <v>17600</v>
@@ -1289,7 +1289,7 @@
         <v>43.299999</v>
       </c>
       <c r="F34" t="n">
-        <v>22.700371</v>
+        <v>22.6525</v>
       </c>
       <c r="G34" t="n">
         <v>48700</v>
@@ -1314,7 +1314,7 @@
         <v>42.080002</v>
       </c>
       <c r="F35" t="n">
-        <v>22.060776</v>
+        <v>22.014259</v>
       </c>
       <c r="G35" t="n">
         <v>41600</v>
@@ -1339,7 +1339,7 @@
         <v>41.938999</v>
       </c>
       <c r="F36" t="n">
-        <v>21.986855</v>
+        <v>21.940489</v>
       </c>
       <c r="G36" t="n">
         <v>10900</v>
@@ -1364,7 +1364,7 @@
         <v>41.411999</v>
       </c>
       <c r="F37" t="n">
-        <v>21.710573</v>
+        <v>21.664793</v>
       </c>
       <c r="G37" t="n">
         <v>39800</v>
@@ -1389,7 +1389,7 @@
         <v>40.566002</v>
       </c>
       <c r="F38" t="n">
-        <v>21.26705</v>
+        <v>21.2222</v>
       </c>
       <c r="G38" t="n">
         <v>87300</v>
@@ -1414,7 +1414,7 @@
         <v>40.133999</v>
       </c>
       <c r="F39" t="n">
-        <v>21.040569</v>
+        <v>20.996201</v>
       </c>
       <c r="G39" t="n">
         <v>30300</v>
@@ -1439,7 +1439,7 @@
         <v>39.619999</v>
       </c>
       <c r="F40" t="n">
-        <v>20.771101</v>
+        <v>20.727304</v>
       </c>
       <c r="G40" t="n">
         <v>64400</v>
@@ -1464,7 +1464,7 @@
         <v>39.507999</v>
       </c>
       <c r="F41" t="n">
-        <v>20.712383</v>
+        <v>20.668705</v>
       </c>
       <c r="G41" t="n">
         <v>106100</v>
@@ -1489,7 +1489,7 @@
         <v>40.459999</v>
       </c>
       <c r="F42" t="n">
-        <v>21.211485</v>
+        <v>21.166748</v>
       </c>
       <c r="G42" t="n">
         <v>107000</v>
@@ -1514,7 +1514,7 @@
         <v>40.328999</v>
       </c>
       <c r="F43" t="n">
-        <v>21.142803</v>
+        <v>21.098211</v>
       </c>
       <c r="G43" t="n">
         <v>117900</v>
@@ -1539,7 +1539,7 @@
         <v>40.450001</v>
       </c>
       <c r="F44" t="n">
-        <v>21.20624</v>
+        <v>21.161516</v>
       </c>
       <c r="G44" t="n">
         <v>38500</v>
@@ -1564,7 +1564,7 @@
         <v>41.240002</v>
       </c>
       <c r="F45" t="n">
-        <v>21.620399</v>
+        <v>21.574802</v>
       </c>
       <c r="G45" t="n">
         <v>97600</v>
@@ -1589,7 +1589,7 @@
         <v>40.308998</v>
       </c>
       <c r="F46" t="n">
-        <v>21.132313</v>
+        <v>21.087753</v>
       </c>
       <c r="G46" t="n">
         <v>61400</v>
@@ -1614,7 +1614,7 @@
         <v>39.450001</v>
       </c>
       <c r="F47" t="n">
-        <v>20.68198</v>
+        <v>20.638363</v>
       </c>
       <c r="G47" t="n">
         <v>111000</v>
@@ -1639,7 +1639,7 @@
         <v>39.700001</v>
       </c>
       <c r="F48" t="n">
-        <v>20.813044</v>
+        <v>20.769157</v>
       </c>
       <c r="G48" t="n">
         <v>42100</v>
@@ -1664,7 +1664,7 @@
         <v>38.783001</v>
       </c>
       <c r="F49" t="n">
-        <v>20.332296</v>
+        <v>20.289419</v>
       </c>
       <c r="G49" t="n">
         <v>148900</v>
@@ -1689,7 +1689,7 @@
         <v>39.669998</v>
       </c>
       <c r="F50" t="n">
-        <v>20.797314</v>
+        <v>20.75346</v>
       </c>
       <c r="G50" t="n">
         <v>35000</v>
@@ -1714,7 +1714,7 @@
         <v>40.27</v>
       </c>
       <c r="F51" t="n">
-        <v>21.111868</v>
+        <v>21.067348</v>
       </c>
       <c r="G51" t="n">
         <v>99800</v>
@@ -1739,7 +1739,7 @@
         <v>40.110001</v>
       </c>
       <c r="F52" t="n">
-        <v>21.027994</v>
+        <v>20.983646</v>
       </c>
       <c r="G52" t="n">
         <v>51900</v>
@@ -1764,7 +1764,7 @@
         <v>40.290001</v>
       </c>
       <c r="F53" t="n">
-        <v>21.122356</v>
+        <v>21.077812</v>
       </c>
       <c r="G53" t="n">
         <v>52500</v>
@@ -1789,7 +1789,7 @@
         <v>40.599998</v>
       </c>
       <c r="F54" t="n">
-        <v>21.284878</v>
+        <v>21.239986</v>
       </c>
       <c r="G54" t="n">
         <v>59400</v>
@@ -1814,7 +1814,7 @@
         <v>40.169998</v>
       </c>
       <c r="F55" t="n">
-        <v>21.059444</v>
+        <v>21.015032</v>
       </c>
       <c r="G55" t="n">
         <v>28000</v>
@@ -1839,7 +1839,7 @@
         <v>40.355999</v>
       </c>
       <c r="F56" t="n">
-        <v>21.156956</v>
+        <v>21.112341</v>
       </c>
       <c r="G56" t="n">
         <v>123000</v>
@@ -1864,7 +1864,7 @@
         <v>40.495998</v>
       </c>
       <c r="F57" t="n">
-        <v>21.23035</v>
+        <v>21.185581</v>
       </c>
       <c r="G57" t="n">
         <v>36900</v>
@@ -1889,7 +1889,7 @@
         <v>40.549999</v>
       </c>
       <c r="F58" t="n">
-        <v>21.258663</v>
+        <v>21.213833</v>
       </c>
       <c r="G58" t="n">
         <v>31600</v>
@@ -1914,7 +1914,7 @@
         <v>40.084</v>
       </c>
       <c r="F59" t="n">
-        <v>21.014357</v>
+        <v>20.970041</v>
       </c>
       <c r="G59" t="n">
         <v>72900</v>
@@ -1939,7 +1939,7 @@
         <v>39.970001</v>
       </c>
       <c r="F60" t="n">
-        <v>20.954592</v>
+        <v>20.910404</v>
       </c>
       <c r="G60" t="n">
         <v>30100</v>
@@ -1964,7 +1964,7 @@
         <v>39.761002</v>
       </c>
       <c r="F61" t="n">
-        <v>20.845022</v>
+        <v>20.801064</v>
       </c>
       <c r="G61" t="n">
         <v>31100</v>
@@ -1989,7 +1989,7 @@
         <v>40.16</v>
       </c>
       <c r="F62" t="n">
-        <v>21.054205</v>
+        <v>21.009804</v>
       </c>
       <c r="G62" t="n">
         <v>16600</v>
@@ -2014,7 +2014,7 @@
         <v>41.419998</v>
       </c>
       <c r="F63" t="n">
-        <v>21.714767</v>
+        <v>21.668974</v>
       </c>
       <c r="G63" t="n">
         <v>93300</v>
@@ -2039,7 +2039,7 @@
         <v>41.051998</v>
       </c>
       <c r="F64" t="n">
-        <v>21.521843</v>
+        <v>21.476456</v>
       </c>
       <c r="G64" t="n">
         <v>69200</v>
@@ -2064,7 +2064,7 @@
         <v>41.054001</v>
       </c>
       <c r="F65" t="n">
-        <v>21.522888</v>
+        <v>21.477501</v>
       </c>
       <c r="G65" t="n">
         <v>38300</v>
@@ -2089,7 +2089,7 @@
         <v>40.557999</v>
       </c>
       <c r="F66" t="n">
-        <v>21.262857</v>
+        <v>21.218016</v>
       </c>
       <c r="G66" t="n">
         <v>38300</v>
@@ -2114,7 +2114,7 @@
         <v>40.796001</v>
       </c>
       <c r="F67" t="n">
-        <v>21.38763</v>
+        <v>21.342533</v>
       </c>
       <c r="G67" t="n">
         <v>35200</v>
@@ -2139,7 +2139,7 @@
         <v>39.98</v>
       </c>
       <c r="F68" t="n">
-        <v>20.959837</v>
+        <v>20.91564</v>
       </c>
       <c r="G68" t="n">
         <v>185700</v>
@@ -2164,7 +2164,7 @@
         <v>39.48</v>
       </c>
       <c r="F69" t="n">
-        <v>20.697704</v>
+        <v>20.65406</v>
       </c>
       <c r="G69" t="n">
         <v>131800</v>
@@ -2189,7 +2189,7 @@
         <v>39.623001</v>
       </c>
       <c r="F70" t="n">
-        <v>20.772673</v>
+        <v>20.72887</v>
       </c>
       <c r="G70" t="n">
         <v>17900</v>
@@ -2214,7 +2214,7 @@
         <v>39.428001</v>
       </c>
       <c r="F71" t="n">
-        <v>20.670443</v>
+        <v>20.626854</v>
       </c>
       <c r="G71" t="n">
         <v>11300</v>
@@ -2239,7 +2239,7 @@
         <v>39.405998</v>
       </c>
       <c r="F72" t="n">
-        <v>20.658909</v>
+        <v>20.615347</v>
       </c>
       <c r="G72" t="n">
         <v>37500</v>
@@ -2264,7 +2264,7 @@
         <v>39.484001</v>
       </c>
       <c r="F73" t="n">
-        <v>20.6998</v>
+        <v>20.656151</v>
       </c>
       <c r="G73" t="n">
         <v>19400</v>
@@ -2289,7 +2289,7 @@
         <v>39.352001</v>
       </c>
       <c r="F74" t="n">
-        <v>20.630604</v>
+        <v>20.587093</v>
       </c>
       <c r="G74" t="n">
         <v>22100</v>
@@ -2314,7 +2314,7 @@
         <v>39.722</v>
       </c>
       <c r="F75" t="n">
-        <v>20.824575</v>
+        <v>20.780663</v>
       </c>
       <c r="G75" t="n">
         <v>16400</v>
@@ -2339,7 +2339,7 @@
         <v>40.240002</v>
       </c>
       <c r="F76" t="n">
-        <v>21.096144</v>
+        <v>21.051659</v>
       </c>
       <c r="G76" t="n">
         <v>76700</v>
@@ -2364,7 +2364,7 @@
         <v>40.07</v>
       </c>
       <c r="F77" t="n">
-        <v>21.007017</v>
+        <v>20.962719</v>
       </c>
       <c r="G77" t="n">
         <v>17100</v>
@@ -2389,7 +2389,7 @@
         <v>39.688999</v>
       </c>
       <c r="F78" t="n">
-        <v>20.807274</v>
+        <v>20.763401</v>
       </c>
       <c r="G78" t="n">
         <v>55200</v>
@@ -2414,7 +2414,7 @@
         <v>39.313999</v>
       </c>
       <c r="F79" t="n">
-        <v>20.610676</v>
+        <v>20.567215</v>
       </c>
       <c r="G79" t="n">
         <v>52300</v>
@@ -2439,7 +2439,7 @@
         <v>39.763</v>
       </c>
       <c r="F80" t="n">
-        <v>20.846069</v>
+        <v>20.802114</v>
       </c>
       <c r="G80" t="n">
         <v>19000</v>
@@ -2464,7 +2464,7 @@
         <v>39.73</v>
       </c>
       <c r="F81" t="n">
-        <v>20.828772</v>
+        <v>20.784845</v>
       </c>
       <c r="G81" t="n">
         <v>16900</v>
@@ -2489,7 +2489,7 @@
         <v>39.34</v>
       </c>
       <c r="F82" t="n">
-        <v>20.624315</v>
+        <v>20.580814</v>
       </c>
       <c r="G82" t="n">
         <v>20900</v>
@@ -2514,7 +2514,7 @@
         <v>39.877998</v>
       </c>
       <c r="F83" t="n">
-        <v>20.906361</v>
+        <v>20.862276</v>
       </c>
       <c r="G83" t="n">
         <v>80200</v>
@@ -2539,7 +2539,7 @@
         <v>40.25</v>
       </c>
       <c r="F84" t="n">
-        <v>21.101383</v>
+        <v>21.056889</v>
       </c>
       <c r="G84" t="n">
         <v>33500</v>
@@ -2564,7 +2564,7 @@
         <v>40.259998</v>
       </c>
       <c r="F85" t="n">
-        <v>21.10663</v>
+        <v>21.062113</v>
       </c>
       <c r="G85" t="n">
         <v>18000</v>
@@ -2589,7 +2589,7 @@
         <v>39.48</v>
       </c>
       <c r="F86" t="n">
-        <v>20.697704</v>
+        <v>20.65406</v>
       </c>
       <c r="G86" t="n">
         <v>31500</v>
@@ -2614,7 +2614,7 @@
         <v>40.029999</v>
       </c>
       <c r="F87" t="n">
-        <v>20.986048</v>
+        <v>20.941784</v>
       </c>
       <c r="G87" t="n">
         <v>21200</v>
@@ -2639,7 +2639,7 @@
         <v>39.450001</v>
       </c>
       <c r="F88" t="n">
-        <v>20.68198</v>
+        <v>20.638363</v>
       </c>
       <c r="G88" t="n">
         <v>44100</v>
@@ -2664,7 +2664,7 @@
         <v>38.77</v>
       </c>
       <c r="F89" t="n">
-        <v>20.325485</v>
+        <v>20.282623</v>
       </c>
       <c r="G89" t="n">
         <v>170200</v>
@@ -2689,7 +2689,7 @@
         <v>39.099998</v>
       </c>
       <c r="F90" t="n">
-        <v>20.498484</v>
+        <v>20.455261</v>
       </c>
       <c r="G90" t="n">
         <v>20400</v>
@@ -2714,7 +2714,7 @@
         <v>39.41</v>
       </c>
       <c r="F91" t="n">
-        <v>20.661005</v>
+        <v>20.617437</v>
       </c>
       <c r="G91" t="n">
         <v>8300</v>
@@ -2739,7 +2739,7 @@
         <v>39.48</v>
       </c>
       <c r="F92" t="n">
-        <v>20.697704</v>
+        <v>20.65406</v>
       </c>
       <c r="G92" t="n">
         <v>14600</v>
@@ -2764,7 +2764,7 @@
         <v>38.700001</v>
       </c>
       <c r="F93" t="n">
-        <v>20.288784</v>
+        <v>20.245998</v>
       </c>
       <c r="G93" t="n">
         <v>31100</v>
@@ -2789,7 +2789,7 @@
         <v>38.66</v>
       </c>
       <c r="F94" t="n">
-        <v>20.267817</v>
+        <v>20.225075</v>
       </c>
       <c r="G94" t="n">
         <v>36400</v>
@@ -2814,7 +2814,7 @@
         <v>38.529999</v>
       </c>
       <c r="F95" t="n">
-        <v>20.199663</v>
+        <v>20.157066</v>
       </c>
       <c r="G95" t="n">
         <v>48100</v>
@@ -2839,7 +2839,7 @@
         <v>39.610001</v>
       </c>
       <c r="F96" t="n">
-        <v>20.765865</v>
+        <v>20.722069</v>
       </c>
       <c r="G96" t="n">
         <v>107100</v>
@@ -2864,7 +2864,7 @@
         <v>39.93</v>
       </c>
       <c r="F97" t="n">
-        <v>20.933619</v>
+        <v>20.889475</v>
       </c>
       <c r="G97" t="n">
         <v>127200</v>
@@ -2889,7 +2889,7 @@
         <v>39.849998</v>
       </c>
       <c r="F98" t="n">
-        <v>20.891685</v>
+        <v>20.847624</v>
       </c>
       <c r="G98" t="n">
         <v>31600</v>
@@ -2914,7 +2914,7 @@
         <v>40.880001</v>
       </c>
       <c r="F99" t="n">
-        <v>21.431665</v>
+        <v>21.386475</v>
       </c>
       <c r="G99" t="n">
         <v>257100</v>
@@ -2939,7 +2939,7 @@
         <v>40.82</v>
       </c>
       <c r="F100" t="n">
-        <v>21.400215</v>
+        <v>21.355083</v>
       </c>
       <c r="G100" t="n">
         <v>103100</v>
@@ -2964,7 +2964,7 @@
         <v>40.669998</v>
       </c>
       <c r="F101" t="n">
-        <v>21.321573</v>
+        <v>21.276609</v>
       </c>
       <c r="G101" t="n">
         <v>77300</v>
@@ -2989,7 +2989,7 @@
         <v>40.43</v>
       </c>
       <c r="F102" t="n">
-        <v>21.195753</v>
+        <v>21.151047</v>
       </c>
       <c r="G102" t="n">
         <v>40900</v>
@@ -3014,7 +3014,7 @@
         <v>40.299999</v>
       </c>
       <c r="F103" t="n">
-        <v>21.127598</v>
+        <v>21.083046</v>
       </c>
       <c r="G103" t="n">
         <v>54900</v>
@@ -3039,7 +3039,7 @@
         <v>40.869999</v>
       </c>
       <c r="F104" t="n">
-        <v>21.42643</v>
+        <v>21.381241</v>
       </c>
       <c r="G104" t="n">
         <v>51800</v>
@@ -3064,7 +3064,7 @@
         <v>40.769001</v>
       </c>
       <c r="F105" t="n">
-        <v>21.373476</v>
+        <v>21.328402</v>
       </c>
       <c r="G105" t="n">
         <v>38200</v>
@@ -3089,7 +3089,7 @@
         <v>41.5</v>
       </c>
       <c r="F106" t="n">
-        <v>21.756706</v>
+        <v>21.710821</v>
       </c>
       <c r="G106" t="n">
         <v>82200</v>
@@ -3114,7 +3114,7 @@
         <v>42.155998</v>
       </c>
       <c r="F107" t="n">
-        <v>22.100618</v>
+        <v>22.054014</v>
       </c>
       <c r="G107" t="n">
         <v>64800</v>
@@ -3139,7 +3139,7 @@
         <v>42.060001</v>
       </c>
       <c r="F108" t="n">
-        <v>22.050295</v>
+        <v>22.003794</v>
       </c>
       <c r="G108" t="n">
         <v>76400</v>
@@ -3164,7 +3164,7 @@
         <v>40.970001</v>
       </c>
       <c r="F109" t="n">
-        <v>21.478853</v>
+        <v>21.433558</v>
       </c>
       <c r="G109" t="n">
         <v>128500</v>
@@ -3189,7 +3189,7 @@
         <v>40.23</v>
       </c>
       <c r="F110" t="n">
-        <v>21.090899</v>
+        <v>21.046423</v>
       </c>
       <c r="G110" t="n">
         <v>112600</v>
@@ -3214,7 +3214,7 @@
         <v>40.040001</v>
       </c>
       <c r="F111" t="n">
-        <v>20.991293</v>
+        <v>20.947025</v>
       </c>
       <c r="G111" t="n">
         <v>47600</v>
@@ -3239,7 +3239,7 @@
         <v>40.580002</v>
       </c>
       <c r="F112" t="n">
-        <v>21.274391</v>
+        <v>21.229525</v>
       </c>
       <c r="G112" t="n">
         <v>18300</v>
@@ -3264,7 +3264,7 @@
         <v>40.349998</v>
       </c>
       <c r="F113" t="n">
-        <v>21.153812</v>
+        <v>21.109201</v>
       </c>
       <c r="G113" t="n">
         <v>48600</v>
@@ -3289,7 +3289,7 @@
         <v>41.181999</v>
       </c>
       <c r="F114" t="n">
-        <v>21.589994</v>
+        <v>21.544468</v>
       </c>
       <c r="G114" t="n">
         <v>56900</v>
@@ -3314,7 +3314,7 @@
         <v>41.720001</v>
       </c>
       <c r="F115" t="n">
-        <v>21.872049</v>
+        <v>21.825922</v>
       </c>
       <c r="G115" t="n">
         <v>102000</v>
@@ -3339,7 +3339,7 @@
         <v>41.700001</v>
       </c>
       <c r="F116" t="n">
-        <v>21.861561</v>
+        <v>21.815454</v>
       </c>
       <c r="G116" t="n">
         <v>33900</v>
@@ -3364,7 +3364,7 @@
         <v>41.029999</v>
       </c>
       <c r="F117" t="n">
-        <v>21.510303</v>
+        <v>21.464951</v>
       </c>
       <c r="G117" t="n">
         <v>42500</v>
@@ -3389,7 +3389,7 @@
         <v>41.740002</v>
       </c>
       <c r="F118" t="n">
-        <v>21.88253</v>
+        <v>21.836384</v>
       </c>
       <c r="G118" t="n">
         <v>32200</v>
@@ -3414,7 +3414,7 @@
         <v>41.325001</v>
       </c>
       <c r="F119" t="n">
-        <v>21.664961</v>
+        <v>21.619274</v>
       </c>
       <c r="G119" t="n">
         <v>51200</v>
@@ -3439,7 +3439,7 @@
         <v>40.240002</v>
       </c>
       <c r="F120" t="n">
-        <v>21.096144</v>
+        <v>21.051659</v>
       </c>
       <c r="G120" t="n">
         <v>210200</v>
@@ -3464,7 +3464,7 @@
         <v>40.268002</v>
       </c>
       <c r="F121" t="n">
-        <v>21.110821</v>
+        <v>21.066305</v>
       </c>
       <c r="G121" t="n">
         <v>23800</v>
@@ -3489,7 +3489,7 @@
         <v>40.119999</v>
       </c>
       <c r="F122" t="n">
-        <v>21.033232</v>
+        <v>20.988878</v>
       </c>
       <c r="G122" t="n">
         <v>51600</v>
@@ -3514,7 +3514,7 @@
         <v>41.09</v>
       </c>
       <c r="F123" t="n">
-        <v>21.541763</v>
+        <v>21.496336</v>
       </c>
       <c r="G123" t="n">
         <v>68200</v>
@@ -3539,7 +3539,7 @@
         <v>40.610001</v>
       </c>
       <c r="F124" t="n">
-        <v>21.290119</v>
+        <v>21.245228</v>
       </c>
       <c r="G124" t="n">
         <v>34400</v>
@@ -3564,7 +3564,7 @@
         <v>40.91</v>
       </c>
       <c r="F125" t="n">
-        <v>21.447397</v>
+        <v>21.402166</v>
       </c>
       <c r="G125" t="n">
         <v>48300</v>
@@ -3589,7 +3589,7 @@
         <v>39.75</v>
       </c>
       <c r="F126" t="n">
-        <v>20.839258</v>
+        <v>20.795309</v>
       </c>
       <c r="G126" t="n">
         <v>59500</v>
@@ -3614,7 +3614,7 @@
         <v>38.799999</v>
       </c>
       <c r="F127" t="n">
-        <v>20.341208</v>
+        <v>20.298315</v>
       </c>
       <c r="G127" t="n">
         <v>181300</v>
@@ -3639,7 +3639,7 @@
         <v>38.790001</v>
       </c>
       <c r="F128" t="n">
-        <v>20.335964</v>
+        <v>20.293081</v>
       </c>
       <c r="G128" t="n">
         <v>48900</v>
@@ -3664,7 +3664,7 @@
         <v>38.669998</v>
       </c>
       <c r="F129" t="n">
-        <v>20.273054</v>
+        <v>20.230307</v>
       </c>
       <c r="G129" t="n">
         <v>145100</v>
@@ -3689,7 +3689,7 @@
         <v>39.830002</v>
       </c>
       <c r="F130" t="n">
-        <v>20.881199</v>
+        <v>20.837162</v>
       </c>
       <c r="G130" t="n">
         <v>132500</v>
@@ -3714,7 +3714,7 @@
         <v>39.93</v>
       </c>
       <c r="F131" t="n">
-        <v>20.933619</v>
+        <v>20.889475</v>
       </c>
       <c r="G131" t="n">
         <v>38100</v>
@@ -3739,7 +3739,7 @@
         <v>40.380001</v>
       </c>
       <c r="F132" t="n">
-        <v>21.169538</v>
+        <v>21.124901</v>
       </c>
       <c r="G132" t="n">
         <v>93300</v>
@@ -3764,7 +3764,7 @@
         <v>41.27</v>
       </c>
       <c r="F133" t="n">
-        <v>21.636129</v>
+        <v>21.590502</v>
       </c>
       <c r="G133" t="n">
         <v>192600</v>
@@ -3789,7 +3789,7 @@
         <v>41.18</v>
       </c>
       <c r="F134" t="n">
-        <v>21.588942</v>
+        <v>21.543421</v>
       </c>
       <c r="G134" t="n">
         <v>19900</v>
@@ -3814,7 +3814,7 @@
         <v>40.209999</v>
       </c>
       <c r="F135" t="n">
-        <v>21.080414</v>
+        <v>21.035959</v>
       </c>
       <c r="G135" t="n">
         <v>90700</v>
@@ -3839,7 +3839,7 @@
         <v>39.790001</v>
       </c>
       <c r="F136" t="n">
-        <v>20.860229</v>
+        <v>20.816233</v>
       </c>
       <c r="G136" t="n">
         <v>172900</v>
@@ -3864,7 +3864,7 @@
         <v>39.299999</v>
       </c>
       <c r="F137" t="n">
-        <v>20.603338</v>
+        <v>20.559889</v>
       </c>
       <c r="G137" t="n">
         <v>71500</v>
@@ -3889,7 +3889,7 @@
         <v>39.889999</v>
       </c>
       <c r="F138" t="n">
-        <v>20.912649</v>
+        <v>20.868553</v>
       </c>
       <c r="G138" t="n">
         <v>59400</v>
@@ -3914,7 +3914,7 @@
         <v>40.77</v>
       </c>
       <c r="F139" t="n">
-        <v>21.374002</v>
+        <v>21.328932</v>
       </c>
       <c r="G139" t="n">
         <v>145500</v>
@@ -3939,7 +3939,7 @@
         <v>40.080002</v>
       </c>
       <c r="F140" t="n">
-        <v>21.012264</v>
+        <v>20.967947</v>
       </c>
       <c r="G140" t="n">
         <v>42900</v>
@@ -3964,7 +3964,7 @@
         <v>39.596001</v>
       </c>
       <c r="F141" t="n">
-        <v>20.758522</v>
+        <v>20.714743</v>
       </c>
       <c r="G141" t="n">
         <v>112600</v>
@@ -3989,7 +3989,7 @@
         <v>40.16</v>
       </c>
       <c r="F142" t="n">
-        <v>21.054205</v>
+        <v>21.009804</v>
       </c>
       <c r="G142" t="n">
         <v>51500</v>
@@ -4014,7 +4014,7 @@
         <v>39.516998</v>
       </c>
       <c r="F143" t="n">
-        <v>20.7171</v>
+        <v>20.673414</v>
       </c>
       <c r="G143" t="n">
         <v>75500</v>
@@ -4039,7 +4039,7 @@
         <v>39.91</v>
       </c>
       <c r="F144" t="n">
-        <v>20.923136</v>
+        <v>20.879017</v>
       </c>
       <c r="G144" t="n">
         <v>79200</v>
@@ -4064,7 +4064,7 @@
         <v>39.619999</v>
       </c>
       <c r="F145" t="n">
-        <v>20.771101</v>
+        <v>20.727304</v>
       </c>
       <c r="G145" t="n">
         <v>33000</v>
@@ -4089,7 +4089,7 @@
         <v>38.93</v>
       </c>
       <c r="F146" t="n">
-        <v>20.409365</v>
+        <v>20.366322</v>
       </c>
       <c r="G146" t="n">
         <v>59500</v>
@@ -4114,7 +4114,7 @@
         <v>40.380001</v>
       </c>
       <c r="F147" t="n">
-        <v>21.169538</v>
+        <v>21.124901</v>
       </c>
       <c r="G147" t="n">
         <v>88900</v>
@@ -4139,7 +4139,7 @@
         <v>40.27</v>
       </c>
       <c r="F148" t="n">
-        <v>21.111868</v>
+        <v>21.067348</v>
       </c>
       <c r="G148" t="n">
         <v>26800</v>
@@ -4164,7 +4164,7 @@
         <v>40.424999</v>
       </c>
       <c r="F149" t="n">
-        <v>21.193127</v>
+        <v>21.148439</v>
       </c>
       <c r="G149" t="n">
         <v>29300</v>
@@ -4189,7 +4189,7 @@
         <v>39.540001</v>
       </c>
       <c r="F150" t="n">
-        <v>20.729166</v>
+        <v>20.68545</v>
       </c>
       <c r="G150" t="n">
         <v>64100</v>
@@ -4214,7 +4214,7 @@
         <v>39.41</v>
       </c>
       <c r="F151" t="n">
-        <v>20.661005</v>
+        <v>20.617437</v>
       </c>
       <c r="G151" t="n">
         <v>94100</v>
@@ -4239,7 +4239,7 @@
         <v>38.68</v>
       </c>
       <c r="F152" t="n">
-        <v>20.278297</v>
+        <v>20.235544</v>
       </c>
       <c r="G152" t="n">
         <v>59800</v>
@@ -4264,7 +4264,7 @@
         <v>38.779999</v>
       </c>
       <c r="F153" t="n">
-        <v>20.330721</v>
+        <v>20.287851</v>
       </c>
       <c r="G153" t="n">
         <v>22500</v>
@@ -4289,7 +4289,7 @@
         <v>38.889999</v>
       </c>
       <c r="F154" t="n">
-        <v>20.388393</v>
+        <v>20.3454</v>
       </c>
       <c r="G154" t="n">
         <v>39100</v>
@@ -4314,7 +4314,7 @@
         <v>38.650002</v>
       </c>
       <c r="F155" t="n">
-        <v>20.262569</v>
+        <v>20.219843</v>
       </c>
       <c r="G155" t="n">
         <v>21100</v>
@@ -4339,7 +4339,7 @@
         <v>38.080002</v>
       </c>
       <c r="F156" t="n">
-        <v>19.963745</v>
+        <v>19.921646</v>
       </c>
       <c r="G156" t="n">
         <v>73100</v>
@@ -4364,7 +4364,7 @@
         <v>38.82</v>
       </c>
       <c r="F157" t="n">
-        <v>20.351694</v>
+        <v>20.308781</v>
       </c>
       <c r="G157" t="n">
         <v>36900</v>
@@ -4389,7 +4389,7 @@
         <v>38.73</v>
       </c>
       <c r="F158" t="n">
-        <v>20.304518</v>
+        <v>20.261694</v>
       </c>
       <c r="G158" t="n">
         <v>68700</v>
@@ -4414,7 +4414,7 @@
         <v>38.200001</v>
       </c>
       <c r="F159" t="n">
-        <v>20.026657</v>
+        <v>19.984425</v>
       </c>
       <c r="G159" t="n">
         <v>44000</v>
@@ -4439,7 +4439,7 @@
         <v>38.279999</v>
       </c>
       <c r="F160" t="n">
-        <v>20.068596</v>
+        <v>20.02627</v>
       </c>
       <c r="G160" t="n">
         <v>25900</v>
@@ -4464,7 +4464,7 @@
         <v>38.029999</v>
       </c>
       <c r="F161" t="n">
-        <v>19.937531</v>
+        <v>19.895487</v>
       </c>
       <c r="G161" t="n">
         <v>15000</v>
@@ -4489,7 +4489,7 @@
         <v>37.919998</v>
       </c>
       <c r="F162" t="n">
-        <v>19.879871</v>
+        <v>19.837938</v>
       </c>
       <c r="G162" t="n">
         <v>55700</v>
@@ -4514,7 +4514,7 @@
         <v>38.73</v>
       </c>
       <c r="F163" t="n">
-        <v>20.304518</v>
+        <v>20.261694</v>
       </c>
       <c r="G163" t="n">
         <v>71600</v>
@@ -4539,7 +4539,7 @@
         <v>37.736</v>
       </c>
       <c r="F164" t="n">
-        <v>19.783398</v>
+        <v>19.741686</v>
       </c>
       <c r="G164" t="n">
         <v>44600</v>
@@ -4564,7 +4564,7 @@
         <v>37.540001</v>
       </c>
       <c r="F165" t="n">
-        <v>19.680643</v>
+        <v>19.639147</v>
       </c>
       <c r="G165" t="n">
         <v>99500</v>
@@ -4589,7 +4589,7 @@
         <v>39</v>
       </c>
       <c r="F166" t="n">
-        <v>20.446066</v>
+        <v>20.402946</v>
       </c>
       <c r="G166" t="n">
         <v>77000</v>
@@ -4614,7 +4614,7 @@
         <v>38.630001</v>
       </c>
       <c r="F167" t="n">
-        <v>20.25209</v>
+        <v>20.209381</v>
       </c>
       <c r="G167" t="n">
         <v>43900</v>
@@ -4639,7 +4639,7 @@
         <v>38.66</v>
       </c>
       <c r="F168" t="n">
-        <v>20.267817</v>
+        <v>20.225075</v>
       </c>
       <c r="G168" t="n">
         <v>27400</v>
@@ -4664,7 +4664,7 @@
         <v>38.540001</v>
       </c>
       <c r="F169" t="n">
-        <v>20.204903</v>
+        <v>20.162298</v>
       </c>
       <c r="G169" t="n">
         <v>75900</v>
@@ -4689,7 +4689,7 @@
         <v>38.630001</v>
       </c>
       <c r="F170" t="n">
-        <v>20.25209</v>
+        <v>20.209381</v>
       </c>
       <c r="G170" t="n">
         <v>94200</v>
@@ -4714,7 +4714,7 @@
         <v>39.049999</v>
       </c>
       <c r="F171" t="n">
-        <v>20.472275</v>
+        <v>20.429102</v>
       </c>
       <c r="G171" t="n">
         <v>67900</v>
@@ -4739,7 +4739,7 @@
         <v>39.220001</v>
       </c>
       <c r="F172" t="n">
-        <v>20.561405</v>
+        <v>20.518044</v>
       </c>
       <c r="G172" t="n">
         <v>60100</v>
@@ -4764,7 +4764,7 @@
         <v>39.560001</v>
       </c>
       <c r="F173" t="n">
-        <v>20.739649</v>
+        <v>20.695915</v>
       </c>
       <c r="G173" t="n">
         <v>26500</v>
@@ -4789,7 +4789,7 @@
         <v>39.470001</v>
       </c>
       <c r="F174" t="n">
-        <v>20.692467</v>
+        <v>20.64883</v>
       </c>
       <c r="G174" t="n">
         <v>25100</v>
@@ -4814,7 +4814,7 @@
         <v>39.650002</v>
       </c>
       <c r="F175" t="n">
-        <v>20.786831</v>
+        <v>20.743</v>
       </c>
       <c r="G175" t="n">
         <v>38000</v>
@@ -4839,7 +4839,7 @@
         <v>40.970001</v>
       </c>
       <c r="F176" t="n">
-        <v>21.478853</v>
+        <v>21.433558</v>
       </c>
       <c r="G176" t="n">
         <v>51000</v>
@@ -4864,7 +4864,7 @@
         <v>39.959999</v>
       </c>
       <c r="F177" t="n">
-        <v>20.94935</v>
+        <v>20.90517</v>
       </c>
       <c r="G177" t="n">
         <v>100500</v>
@@ -4889,7 +4889,7 @@
         <v>40.110001</v>
       </c>
       <c r="F178" t="n">
-        <v>21.027994</v>
+        <v>20.983646</v>
       </c>
       <c r="G178" t="n">
         <v>15900</v>
@@ -4914,7 +4914,7 @@
         <v>39.450001</v>
       </c>
       <c r="F179" t="n">
-        <v>20.68198</v>
+        <v>20.638363</v>
       </c>
       <c r="G179" t="n">
         <v>142800</v>
@@ -4939,7 +4939,7 @@
         <v>39.91</v>
       </c>
       <c r="F180" t="n">
-        <v>20.923136</v>
+        <v>20.879017</v>
       </c>
       <c r="G180" t="n">
         <v>95100</v>
@@ -4964,7 +4964,7 @@
         <v>40.279999</v>
       </c>
       <c r="F181" t="n">
-        <v>21.117111</v>
+        <v>21.072582</v>
       </c>
       <c r="G181" t="n">
         <v>65600</v>
@@ -4989,7 +4989,7 @@
         <v>40.400002</v>
       </c>
       <c r="F182" t="n">
-        <v>21.18108</v>
+        <v>21.13641</v>
       </c>
       <c r="G182" t="n">
         <v>68100</v>
@@ -5014,7 +5014,7 @@
         <v>39.66</v>
       </c>
       <c r="F183" t="n">
-        <v>20.793102</v>
+        <v>20.749258</v>
       </c>
       <c r="G183" t="n">
         <v>71300</v>
@@ -5039,7 +5039,7 @@
         <v>40.209999</v>
       </c>
       <c r="F184" t="n">
-        <v>21.081461</v>
+        <v>21.037003</v>
       </c>
       <c r="G184" t="n">
         <v>32300</v>
@@ -5064,7 +5064,7 @@
         <v>40.650002</v>
       </c>
       <c r="F185" t="n">
-        <v>21.312145</v>
+        <v>21.267206</v>
       </c>
       <c r="G185" t="n">
         <v>34500</v>
@@ -5089,7 +5089,7 @@
         <v>40.900002</v>
       </c>
       <c r="F186" t="n">
-        <v>21.443216</v>
+        <v>21.397999</v>
       </c>
       <c r="G186" t="n">
         <v>93500</v>
@@ -5114,7 +5114,7 @@
         <v>40.5</v>
       </c>
       <c r="F187" t="n">
-        <v>21.233503</v>
+        <v>21.18873</v>
       </c>
       <c r="G187" t="n">
         <v>35200</v>
@@ -5139,7 +5139,7 @@
         <v>41.040001</v>
       </c>
       <c r="F188" t="n">
-        <v>21.516621</v>
+        <v>21.471237</v>
       </c>
       <c r="G188" t="n">
         <v>47900</v>
@@ -5164,7 +5164,7 @@
         <v>41.450001</v>
       </c>
       <c r="F189" t="n">
-        <v>21.731575</v>
+        <v>21.685745</v>
       </c>
       <c r="G189" t="n">
         <v>88400</v>
@@ -5189,7 +5189,7 @@
         <v>41.990002</v>
       </c>
       <c r="F190" t="n">
-        <v>22.014688</v>
+        <v>21.968262</v>
       </c>
       <c r="G190" t="n">
         <v>71400</v>
@@ -5214,7 +5214,7 @@
         <v>43</v>
       </c>
       <c r="F191" t="n">
-        <v>22.544212</v>
+        <v>22.496677</v>
       </c>
       <c r="G191" t="n">
         <v>77700</v>
@@ -5239,7 +5239,7 @@
         <v>42.330002</v>
       </c>
       <c r="F192" t="n">
-        <v>22.192945</v>
+        <v>22.146141</v>
       </c>
       <c r="G192" t="n">
         <v>32100</v>
@@ -5264,7 +5264,7 @@
         <v>43.68</v>
       </c>
       <c r="F193" t="n">
-        <v>22.900724</v>
+        <v>22.852438</v>
       </c>
       <c r="G193" t="n">
         <v>49400</v>
@@ -5289,7 +5289,7 @@
         <v>43.66</v>
       </c>
       <c r="F194" t="n">
-        <v>22.890242</v>
+        <v>22.841974</v>
       </c>
       <c r="G194" t="n">
         <v>375000</v>
@@ -5314,7 +5314,7 @@
         <v>45.150002</v>
       </c>
       <c r="F195" t="n">
-        <v>23.671425</v>
+        <v>23.621504</v>
       </c>
       <c r="G195" t="n">
         <v>189900</v>
@@ -5339,7 +5339,7 @@
         <v>46.075001</v>
       </c>
       <c r="F196" t="n">
-        <v>24.156385</v>
+        <v>24.105452</v>
       </c>
       <c r="G196" t="n">
         <v>96900</v>
@@ -5364,7 +5364,7 @@
         <v>45.59</v>
       </c>
       <c r="F197" t="n">
-        <v>23.902113</v>
+        <v>23.851704</v>
       </c>
       <c r="G197" t="n">
         <v>118400</v>
@@ -5389,7 +5389,7 @@
         <v>44.869999</v>
       </c>
       <c r="F198" t="n">
-        <v>23.524622</v>
+        <v>23.475016</v>
       </c>
       <c r="G198" t="n">
         <v>83700</v>
@@ -5414,7 +5414,7 @@
         <v>44.013</v>
       </c>
       <c r="F199" t="n">
-        <v>23.075315</v>
+        <v>23.026651</v>
       </c>
       <c r="G199" t="n">
         <v>78800</v>
@@ -5439,7 +5439,7 @@
         <v>43.900002</v>
       </c>
       <c r="F200" t="n">
-        <v>23.016071</v>
+        <v>22.967535</v>
       </c>
       <c r="G200" t="n">
         <v>45900</v>
@@ -5464,7 +5464,7 @@
         <v>44.709999</v>
       </c>
       <c r="F201" t="n">
-        <v>23.440739</v>
+        <v>23.391308</v>
       </c>
       <c r="G201" t="n">
         <v>38400</v>
@@ -5489,7 +5489,7 @@
         <v>44.380001</v>
       </c>
       <c r="F202" t="n">
-        <v>23.267725</v>
+        <v>23.21866</v>
       </c>
       <c r="G202" t="n">
         <v>86400</v>
@@ -5514,7 +5514,7 @@
         <v>44</v>
       </c>
       <c r="F203" t="n">
-        <v>23.068501</v>
+        <v>23.019852</v>
       </c>
       <c r="G203" t="n">
         <v>42200</v>
@@ -5539,7 +5539,7 @@
         <v>42.610001</v>
       </c>
       <c r="F204" t="n">
-        <v>22.339743</v>
+        <v>22.292637</v>
       </c>
       <c r="G204" t="n">
         <v>57500</v>
@@ -5564,7 +5564,7 @@
         <v>42.959999</v>
       </c>
       <c r="F205" t="n">
-        <v>22.523245</v>
+        <v>22.475746</v>
       </c>
       <c r="G205" t="n">
         <v>86600</v>
@@ -5589,7 +5589,7 @@
         <v>45.73</v>
       </c>
       <c r="F206" t="n">
-        <v>23.975512</v>
+        <v>23.924948</v>
       </c>
       <c r="G206" t="n">
         <v>87300</v>
@@ -5614,7 +5614,7 @@
         <v>44.330002</v>
       </c>
       <c r="F207" t="n">
-        <v>23.24151</v>
+        <v>23.192501</v>
       </c>
       <c r="G207" t="n">
         <v>36800</v>
@@ -5639,7 +5639,7 @@
         <v>43.129002</v>
       </c>
       <c r="F208" t="n">
-        <v>22.611849</v>
+        <v>22.564161</v>
       </c>
       <c r="G208" t="n">
         <v>59600</v>
@@ -5664,7 +5664,7 @@
         <v>44.700001</v>
       </c>
       <c r="F209" t="n">
-        <v>23.435497</v>
+        <v>23.386078</v>
       </c>
       <c r="G209" t="n">
         <v>91000</v>
@@ -5689,7 +5689,7 @@
         <v>45.509998</v>
       </c>
       <c r="F210" t="n">
-        <v>23.860161</v>
+        <v>23.809849</v>
       </c>
       <c r="G210" t="n">
         <v>107400</v>
@@ -5714,7 +5714,7 @@
         <v>45.380001</v>
       </c>
       <c r="F211" t="n">
-        <v>23.792009</v>
+        <v>23.741838</v>
       </c>
       <c r="G211" t="n">
         <v>43700</v>
@@ -5739,7 +5739,7 @@
         <v>45.560001</v>
       </c>
       <c r="F212" t="n">
-        <v>23.886379</v>
+        <v>23.83601</v>
       </c>
       <c r="G212" t="n">
         <v>201400</v>
@@ -5764,7 +5764,7 @@
         <v>44.84</v>
       </c>
       <c r="F213" t="n">
-        <v>23.508898</v>
+        <v>23.45932</v>
       </c>
       <c r="G213" t="n">
         <v>110600</v>
@@ -5789,7 +5789,7 @@
         <v>46.509998</v>
       </c>
       <c r="F214" t="n">
-        <v>24.384449</v>
+        <v>24.333027</v>
       </c>
       <c r="G214" t="n">
         <v>89400</v>
@@ -5814,7 +5814,7 @@
         <v>46.599998</v>
       </c>
       <c r="F215" t="n">
-        <v>24.431633</v>
+        <v>24.380116</v>
       </c>
       <c r="G215" t="n">
         <v>69900</v>
@@ -5839,7 +5839,7 @@
         <v>46.880001</v>
       </c>
       <c r="F216" t="n">
-        <v>24.578436</v>
+        <v>24.526606</v>
       </c>
       <c r="G216" t="n">
         <v>244500</v>
@@ -5864,7 +5864,7 @@
         <v>46.75</v>
       </c>
       <c r="F217" t="n">
-        <v>24.510279</v>
+        <v>24.45859</v>
       </c>
       <c r="G217" t="n">
         <v>225400</v>
@@ -5889,7 +5889,7 @@
         <v>44.779999</v>
       </c>
       <c r="F218" t="n">
-        <v>23.477444</v>
+        <v>23.427935</v>
       </c>
       <c r="G218" t="n">
         <v>125500</v>
@@ -5914,7 +5914,7 @@
         <v>46.68</v>
       </c>
       <c r="F219" t="n">
-        <v>24.473579</v>
+        <v>24.421972</v>
       </c>
       <c r="G219" t="n">
         <v>68500</v>
@@ -5939,7 +5939,7 @@
         <v>47.459999</v>
       </c>
       <c r="F220" t="n">
-        <v>24.882521</v>
+        <v>24.83005</v>
       </c>
       <c r="G220" t="n">
         <v>122800</v>
@@ -5964,7 +5964,7 @@
         <v>45.77</v>
       </c>
       <c r="F221" t="n">
-        <v>23.996481</v>
+        <v>23.945877</v>
       </c>
       <c r="G221" t="n">
         <v>94700</v>
@@ -5989,7 +5989,7 @@
         <v>47.599998</v>
       </c>
       <c r="F222" t="n">
-        <v>24.955919</v>
+        <v>24.903294</v>
       </c>
       <c r="G222" t="n">
         <v>82100</v>
@@ -6014,7 +6014,7 @@
         <v>49.900002</v>
       </c>
       <c r="F223" t="n">
-        <v>26.161774</v>
+        <v>26.106606</v>
       </c>
       <c r="G223" t="n">
         <v>82100</v>
@@ -6039,7 +6039,7 @@
         <v>51.080002</v>
       </c>
       <c r="F224" t="n">
-        <v>26.780436</v>
+        <v>26.723955</v>
       </c>
       <c r="G224" t="n">
         <v>135900</v>
@@ -6064,7 +6064,7 @@
         <v>50.32</v>
       </c>
       <c r="F225" t="n">
-        <v>26.381971</v>
+        <v>26.326342</v>
       </c>
       <c r="G225" t="n">
         <v>94700</v>
@@ -6089,7 +6089,7 @@
         <v>50.009998</v>
       </c>
       <c r="F226" t="n">
-        <v>26.21944</v>
+        <v>26.164154</v>
       </c>
       <c r="G226" t="n">
         <v>67100</v>
@@ -6114,7 +6114,7 @@
         <v>49.84</v>
       </c>
       <c r="F227" t="n">
-        <v>26.130318</v>
+        <v>26.075214</v>
       </c>
       <c r="G227" t="n">
         <v>132700</v>
@@ -6139,7 +6139,7 @@
         <v>47.810001</v>
       </c>
       <c r="F228" t="n">
-        <v>25.066023</v>
+        <v>25.013163</v>
       </c>
       <c r="G228" t="n">
         <v>140700</v>
@@ -6164,7 +6164,7 @@
         <v>47.93</v>
       </c>
       <c r="F229" t="n">
-        <v>25.128933</v>
+        <v>25.075945</v>
       </c>
       <c r="G229" t="n">
         <v>173900</v>
@@ -6189,7 +6189,7 @@
         <v>49.220001</v>
       </c>
       <c r="F230" t="n">
-        <v>25.805265</v>
+        <v>25.750843</v>
       </c>
       <c r="G230" t="n">
         <v>158000</v>
@@ -6214,7 +6214,7 @@
         <v>50.779999</v>
       </c>
       <c r="F231" t="n">
-        <v>26.623146</v>
+        <v>26.566999</v>
       </c>
       <c r="G231" t="n">
         <v>340500</v>
@@ -6239,7 +6239,7 @@
         <v>53.369999</v>
       </c>
       <c r="F232" t="n">
-        <v>27.981039</v>
+        <v>27.922031</v>
       </c>
       <c r="G232" t="n">
         <v>296200</v>
@@ -6264,7 +6264,7 @@
         <v>56.5</v>
       </c>
       <c r="F233" t="n">
-        <v>29.622049</v>
+        <v>29.559586</v>
       </c>
       <c r="G233" t="n">
         <v>258000</v>
@@ -6289,7 +6289,7 @@
         <v>58.959999</v>
       </c>
       <c r="F234" t="n">
-        <v>30.911783</v>
+        <v>30.846601</v>
       </c>
       <c r="G234" t="n">
         <v>297900</v>
@@ -6314,7 +6314,7 @@
         <v>57.810001</v>
       </c>
       <c r="F235" t="n">
-        <v>30.308867</v>
+        <v>30.244947</v>
       </c>
       <c r="G235" t="n">
         <v>310500</v>
@@ -6339,7 +6339,7 @@
         <v>55.529999</v>
       </c>
       <c r="F236" t="n">
-        <v>29.113493</v>
+        <v>29.052097</v>
       </c>
       <c r="G236" t="n">
         <v>377100</v>
@@ -6364,7 +6364,7 @@
         <v>57.310001</v>
       </c>
       <c r="F237" t="n">
-        <v>30.046719</v>
+        <v>29.983358</v>
       </c>
       <c r="G237" t="n">
         <v>178200</v>
@@ -6389,7 +6389,7 @@
         <v>57.889999</v>
       </c>
       <c r="F238" t="n">
-        <v>30.350805</v>
+        <v>30.2868</v>
       </c>
       <c r="G238" t="n">
         <v>199700</v>
@@ -6414,7 +6414,7 @@
         <v>58.91</v>
       </c>
       <c r="F239" t="n">
-        <v>30.885574</v>
+        <v>30.820436</v>
       </c>
       <c r="G239" t="n">
         <v>236000</v>
@@ -6439,7 +6439,7 @@
         <v>55.529999</v>
       </c>
       <c r="F240" t="n">
-        <v>29.113493</v>
+        <v>29.052097</v>
       </c>
       <c r="G240" t="n">
         <v>204100</v>
@@ -6464,7 +6464,7 @@
         <v>56.049999</v>
       </c>
       <c r="F241" t="n">
-        <v>29.386122</v>
+        <v>29.324148</v>
       </c>
       <c r="G241" t="n">
         <v>255500</v>
@@ -6489,7 +6489,7 @@
         <v>56.779999</v>
       </c>
       <c r="F242" t="n">
-        <v>29.768852</v>
+        <v>29.706068</v>
       </c>
       <c r="G242" t="n">
         <v>164600</v>
@@ -6514,7 +6514,7 @@
         <v>55.889999</v>
       </c>
       <c r="F243" t="n">
-        <v>29.302235</v>
+        <v>29.240444</v>
       </c>
       <c r="G243" t="n">
         <v>134400</v>
@@ -6539,7 +6539,7 @@
         <v>55</v>
       </c>
       <c r="F244" t="n">
-        <v>28.836653</v>
+        <v>28.775843</v>
       </c>
       <c r="G244" t="n">
         <v>151300</v>
@@ -6564,7 +6564,7 @@
         <v>56.799999</v>
       </c>
       <c r="F245" t="n">
-        <v>29.780396</v>
+        <v>29.717594</v>
       </c>
       <c r="G245" t="n">
         <v>134700</v>
@@ -6589,7 +6589,7 @@
         <v>56.860001</v>
       </c>
       <c r="F246" t="n">
-        <v>29.811857</v>
+        <v>29.748991</v>
       </c>
       <c r="G246" t="n">
         <v>138600</v>
@@ -6614,7 +6614,7 @@
         <v>58.43</v>
       </c>
       <c r="F247" t="n">
-        <v>30.635012</v>
+        <v>30.570412</v>
       </c>
       <c r="G247" t="n">
         <v>126500</v>
@@ -6639,7 +6639,7 @@
         <v>60.560001</v>
       </c>
       <c r="F248" t="n">
-        <v>31.751781</v>
+        <v>31.68482</v>
       </c>
       <c r="G248" t="n">
         <v>258700</v>
@@ -6664,7 +6664,7 @@
         <v>58.990002</v>
       </c>
       <c r="F249" t="n">
-        <v>30.928619</v>
+        <v>30.863398</v>
       </c>
       <c r="G249" t="n">
         <v>192400</v>
@@ -6689,7 +6689,7 @@
         <v>58.119999</v>
       </c>
       <c r="F250" t="n">
-        <v>30.472475</v>
+        <v>30.408216</v>
       </c>
       <c r="G250" t="n">
         <v>101400</v>
@@ -6714,7 +6714,7 @@
         <v>61.279999</v>
       </c>
       <c r="F251" t="n">
-        <v>32.12928</v>
+        <v>32.06152</v>
       </c>
       <c r="G251" t="n">
         <v>220600</v>
@@ -6739,7 +6739,7 @@
         <v>63.02</v>
       </c>
       <c r="F252" t="n">
-        <v>33.041561</v>
+        <v>32.971886</v>
       </c>
       <c r="G252" t="n">
         <v>395500</v>
@@ -6764,7 +6764,7 @@
         <v>61.139999</v>
       </c>
       <c r="F253" t="n">
-        <v>32.055874</v>
+        <v>31.988272</v>
       </c>
       <c r="G253" t="n">
         <v>663400</v>
@@ -6789,7 +6789,7 @@
         <v>61.869999</v>
       </c>
       <c r="F254" t="n">
-        <v>32.438618</v>
+        <v>32.370209</v>
       </c>
       <c r="G254" t="n">
         <v>370700</v>
@@ -6814,7 +6814,7 @@
         <v>58.25</v>
       </c>
       <c r="F255" t="n">
-        <v>30.540638</v>
+        <v>30.476234</v>
       </c>
       <c r="G255" t="n">
         <v>302500</v>
@@ -6839,7 +6839,7 @@
         <v>59.099998</v>
       </c>
       <c r="F256" t="n">
-        <v>30.986298</v>
+        <v>30.92095</v>
       </c>
       <c r="G256" t="n">
         <v>299700</v>
@@ -6864,7 +6864,7 @@
         <v>61.139999</v>
       </c>
       <c r="F257" t="n">
-        <v>32.055874</v>
+        <v>31.988272</v>
       </c>
       <c r="G257" t="n">
         <v>195800</v>
@@ -6889,7 +6889,7 @@
         <v>58.560001</v>
       </c>
       <c r="F258" t="n">
-        <v>30.703176</v>
+        <v>30.638426</v>
       </c>
       <c r="G258" t="n">
         <v>173900</v>
@@ -6914,7 +6914,7 @@
         <v>60.619999</v>
       </c>
       <c r="F259" t="n">
-        <v>31.783236</v>
+        <v>31.716209</v>
       </c>
       <c r="G259" t="n">
         <v>129400</v>
@@ -6939,7 +6939,7 @@
         <v>56.610001</v>
       </c>
       <c r="F260" t="n">
-        <v>29.680777</v>
+        <v>29.618193</v>
       </c>
       <c r="G260" t="n">
         <v>144400</v>
@@ -6964,7 +6964,7 @@
         <v>55.720001</v>
       </c>
       <c r="F261" t="n">
-        <v>29.214153</v>
+        <v>29.152544</v>
       </c>
       <c r="G261" t="n">
         <v>298100</v>
@@ -6989,7 +6989,7 @@
         <v>52</v>
       </c>
       <c r="F262" t="n">
-        <v>27.263748</v>
+        <v>27.206251</v>
       </c>
       <c r="G262" t="n">
         <v>632700</v>
@@ -7014,7 +7014,7 @@
         <v>53.68</v>
       </c>
       <c r="F263" t="n">
-        <v>28.144569</v>
+        <v>28.085224</v>
       </c>
       <c r="G263" t="n">
         <v>172500</v>
@@ -7039,7 +7039,7 @@
         <v>52.029999</v>
       </c>
       <c r="F264" t="n">
-        <v>27.279478</v>
+        <v>27.221947</v>
       </c>
       <c r="G264" t="n">
         <v>300700</v>
@@ -7064,7 +7064,7 @@
         <v>52.32</v>
       </c>
       <c r="F265" t="n">
-        <v>27.433628</v>
+        <v>27.375778</v>
       </c>
       <c r="G265" t="n">
         <v>123300</v>
@@ -7089,7 +7089,7 @@
         <v>52.549999</v>
       </c>
       <c r="F266" t="n">
-        <v>27.554234</v>
+        <v>27.496122</v>
       </c>
       <c r="G266" t="n">
         <v>89600</v>
@@ -7114,7 +7114,7 @@
         <v>51.200001</v>
       </c>
       <c r="F267" t="n">
-        <v>26.846371</v>
+        <v>26.789751</v>
       </c>
       <c r="G267" t="n">
         <v>227600</v>
@@ -7139,7 +7139,7 @@
         <v>54.669998</v>
       </c>
       <c r="F268" t="n">
-        <v>28.66584</v>
+        <v>28.605391</v>
       </c>
       <c r="G268" t="n">
         <v>197300</v>
@@ -7164,7 +7164,7 @@
         <v>53.700001</v>
       </c>
       <c r="F269" t="n">
-        <v>28.157227</v>
+        <v>28.097843</v>
       </c>
       <c r="G269" t="n">
         <v>144000</v>
@@ -7189,7 +7189,7 @@
         <v>53.700001</v>
       </c>
       <c r="F270" t="n">
-        <v>28.157227</v>
+        <v>28.097843</v>
       </c>
       <c r="G270" t="n">
         <v>99100</v>
@@ -7214,7 +7214,7 @@
         <v>53.380001</v>
       </c>
       <c r="F271" t="n">
-        <v>27.989437</v>
+        <v>27.930416</v>
       </c>
       <c r="G271" t="n">
         <v>96700</v>
@@ -7239,7 +7239,7 @@
         <v>55.799999</v>
       </c>
       <c r="F272" t="n">
-        <v>29.258347</v>
+        <v>29.196644</v>
       </c>
       <c r="G272" t="n">
         <v>93100</v>
@@ -7264,7 +7264,7 @@
         <v>54.720001</v>
       </c>
       <c r="F273" t="n">
-        <v>28.692057</v>
+        <v>28.631548</v>
       </c>
       <c r="G273" t="n">
         <v>109800</v>
@@ -7289,7 +7289,7 @@
         <v>56.330002</v>
       </c>
       <c r="F274" t="n">
-        <v>29.536255</v>
+        <v>29.473963</v>
       </c>
       <c r="G274" t="n">
         <v>98400</v>
@@ -7314,7 +7314,7 @@
         <v>56.610001</v>
       </c>
       <c r="F275" t="n">
-        <v>29.68306</v>
+        <v>29.620474</v>
       </c>
       <c r="G275" t="n">
         <v>305400</v>
@@ -7339,7 +7339,7 @@
         <v>57.880001</v>
       </c>
       <c r="F276" t="n">
-        <v>30.348986</v>
+        <v>30.284985</v>
       </c>
       <c r="G276" t="n">
         <v>302100</v>
@@ -7364,7 +7364,7 @@
         <v>62.41</v>
       </c>
       <c r="F277" t="n">
-        <v>32.724258</v>
+        <v>32.655247</v>
       </c>
       <c r="G277" t="n">
         <v>530200</v>
@@ -7389,7 +7389,7 @@
         <v>64.480003</v>
       </c>
       <c r="F278" t="n">
-        <v>33.809643</v>
+        <v>33.738346</v>
       </c>
       <c r="G278" t="n">
         <v>203800</v>
@@ -7414,7 +7414,7 @@
         <v>60.200001</v>
       </c>
       <c r="F279" t="n">
-        <v>31.56546</v>
+        <v>31.49889</v>
       </c>
       <c r="G279" t="n">
         <v>364400</v>
@@ -7439,7 +7439,7 @@
         <v>59.209999</v>
       </c>
       <c r="F280" t="n">
-        <v>31.046358</v>
+        <v>30.980881</v>
       </c>
       <c r="G280" t="n">
         <v>316700</v>
@@ -7464,7 +7464,7 @@
         <v>59.950001</v>
       </c>
       <c r="F281" t="n">
-        <v>31.434372</v>
+        <v>31.36808</v>
       </c>
       <c r="G281" t="n">
         <v>137400</v>
@@ -7489,7 +7489,7 @@
         <v>62.689999</v>
       </c>
       <c r="F282" t="n">
-        <v>32.871075</v>
+        <v>32.801746</v>
       </c>
       <c r="G282" t="n">
         <v>217300</v>
@@ -7514,7 +7514,7 @@
         <v>60.470001</v>
       </c>
       <c r="F283" t="n">
-        <v>31.707031</v>
+        <v>31.640163</v>
       </c>
       <c r="G283" t="n">
         <v>89600</v>
@@ -7539,7 +7539,7 @@
         <v>59.209999</v>
       </c>
       <c r="F284" t="n">
-        <v>31.046358</v>
+        <v>30.980881</v>
       </c>
       <c r="G284" t="n">
         <v>211600</v>
@@ -7564,7 +7564,7 @@
         <v>61.57</v>
       </c>
       <c r="F285" t="n">
-        <v>32.283798</v>
+        <v>32.215725</v>
       </c>
       <c r="G285" t="n">
         <v>131200</v>
@@ -7589,7 +7589,7 @@
         <v>61.57</v>
       </c>
       <c r="F286" t="n">
-        <v>32.283798</v>
+        <v>32.215725</v>
       </c>
       <c r="G286" t="n">
         <v>83100</v>
@@ -7614,7 +7614,7 @@
         <v>60.330002</v>
       </c>
       <c r="F287" t="n">
-        <v>31.633619</v>
+        <v>31.566914</v>
       </c>
       <c r="G287" t="n">
         <v>65200</v>
@@ -7639,7 +7639,7 @@
         <v>57.889999</v>
       </c>
       <c r="F288" t="n">
-        <v>30.354221</v>
+        <v>30.290213</v>
       </c>
       <c r="G288" t="n">
         <v>90400</v>
@@ -7664,7 +7664,7 @@
         <v>56.470001</v>
       </c>
       <c r="F289" t="n">
-        <v>29.609655</v>
+        <v>29.547215</v>
       </c>
       <c r="G289" t="n">
         <v>259700</v>
@@ -7689,7 +7689,7 @@
         <v>56.765999</v>
       </c>
       <c r="F290" t="n">
-        <v>29.764864</v>
+        <v>29.702095</v>
       </c>
       <c r="G290" t="n">
         <v>129600</v>
@@ -7714,7 +7714,7 @@
         <v>56.869999</v>
       </c>
       <c r="F291" t="n">
-        <v>29.819391</v>
+        <v>29.756512</v>
       </c>
       <c r="G291" t="n">
         <v>253500</v>
@@ -7739,7 +7739,7 @@
         <v>58.560001</v>
       </c>
       <c r="F292" t="n">
-        <v>30.705536</v>
+        <v>30.640783</v>
       </c>
       <c r="G292" t="n">
         <v>119200</v>
@@ -7764,7 +7764,7 @@
         <v>58.59</v>
       </c>
       <c r="F293" t="n">
-        <v>30.721268</v>
+        <v>30.656471</v>
       </c>
       <c r="G293" t="n">
         <v>152900</v>
@@ -7789,7 +7789,7 @@
         <v>59.91</v>
       </c>
       <c r="F294" t="n">
-        <v>31.413393</v>
+        <v>31.347149</v>
       </c>
       <c r="G294" t="n">
         <v>121000</v>
@@ -7814,7 +7814,7 @@
         <v>57.700001</v>
       </c>
       <c r="F295" t="n">
-        <v>30.254599</v>
+        <v>30.190794</v>
       </c>
       <c r="G295" t="n">
         <v>180000</v>
@@ -7839,7 +7839,7 @@
         <v>57.330002</v>
       </c>
       <c r="F296" t="n">
-        <v>30.060593</v>
+        <v>29.9972</v>
       </c>
       <c r="G296" t="n">
         <v>90000</v>
@@ -7864,7 +7864,7 @@
         <v>55.419998</v>
       </c>
       <c r="F297" t="n">
-        <v>29.059095</v>
+        <v>28.99782</v>
       </c>
       <c r="G297" t="n">
         <v>98600</v>
@@ -7889,7 +7889,7 @@
         <v>56.07</v>
       </c>
       <c r="F298" t="n">
-        <v>29.39992</v>
+        <v>29.337921</v>
       </c>
       <c r="G298" t="n">
         <v>63300</v>
@@ -7914,7 +7914,7 @@
         <v>53.5</v>
       </c>
       <c r="F299" t="n">
-        <v>28.052357</v>
+        <v>27.993202</v>
       </c>
       <c r="G299" t="n">
         <v>187000</v>
@@ -7939,7 +7939,7 @@
         <v>54.630001</v>
       </c>
       <c r="F300" t="n">
-        <v>28.644865</v>
+        <v>28.584457</v>
       </c>
       <c r="G300" t="n">
         <v>201400</v>
@@ -7964,7 +7964,7 @@
         <v>55.240002</v>
       </c>
       <c r="F301" t="n">
-        <v>28.964714</v>
+        <v>28.903635</v>
       </c>
       <c r="G301" t="n">
         <v>101900</v>
@@ -7989,7 +7989,7 @@
         <v>55.450001</v>
       </c>
       <c r="F302" t="n">
-        <v>29.074825</v>
+        <v>29.01351</v>
       </c>
       <c r="G302" t="n">
         <v>125100</v>
@@ -8014,7 +8014,7 @@
         <v>54.09</v>
       </c>
       <c r="F303" t="n">
-        <v>28.361721</v>
+        <v>28.301908</v>
       </c>
       <c r="G303" t="n">
         <v>106700</v>
@@ -8039,7 +8039,7 @@
         <v>52.639999</v>
       </c>
       <c r="F304" t="n">
-        <v>27.601423</v>
+        <v>27.543215</v>
       </c>
       <c r="G304" t="n">
         <v>117200</v>
@@ -8064,7 +8064,7 @@
         <v>53.860001</v>
       </c>
       <c r="F305" t="n">
-        <v>28.241121</v>
+        <v>28.181564</v>
       </c>
       <c r="G305" t="n">
         <v>71000</v>
@@ -8089,7 +8089,7 @@
         <v>52.82</v>
       </c>
       <c r="F306" t="n">
-        <v>27.702488</v>
+        <v>27.644072</v>
       </c>
       <c r="G306" t="n">
         <v>229000</v>
@@ -8114,7 +8114,7 @@
         <v>53.540001</v>
       </c>
       <c r="F307" t="n">
-        <v>28.080112</v>
+        <v>28.020891</v>
       </c>
       <c r="G307" t="n">
         <v>85300</v>
@@ -8139,7 +8139,7 @@
         <v>52.16</v>
       </c>
       <c r="F308" t="n">
-        <v>27.356342</v>
+        <v>27.298649</v>
       </c>
       <c r="G308" t="n">
         <v>107900</v>
@@ -8164,7 +8164,7 @@
         <v>50.73</v>
       </c>
       <c r="F309" t="n">
-        <v>26.606344</v>
+        <v>26.550241</v>
       </c>
       <c r="G309" t="n">
         <v>395200</v>
@@ -8189,7 +8189,7 @@
         <v>47.98</v>
       </c>
       <c r="F310" t="n">
-        <v>25.164057</v>
+        <v>25.110992</v>
       </c>
       <c r="G310" t="n">
         <v>408700</v>
@@ -8214,7 +8214,7 @@
         <v>51.139999</v>
       </c>
       <c r="F311" t="n">
-        <v>26.821379</v>
+        <v>26.764816</v>
       </c>
       <c r="G311" t="n">
         <v>204600</v>
@@ -8239,7 +8239,7 @@
         <v>49.139999</v>
       </c>
       <c r="F312" t="n">
-        <v>25.77244</v>
+        <v>25.71809</v>
       </c>
       <c r="G312" t="n">
         <v>79200</v>
@@ -8264,7 +8264,7 @@
         <v>49.07</v>
       </c>
       <c r="F313" t="n">
-        <v>25.735727</v>
+        <v>25.681454</v>
       </c>
       <c r="G313" t="n">
         <v>35700</v>
@@ -8289,7 +8289,7 @@
         <v>51.27</v>
       </c>
       <c r="F314" t="n">
-        <v>26.889557</v>
+        <v>26.832857</v>
       </c>
       <c r="G314" t="n">
         <v>187200</v>
@@ -8314,7 +8314,7 @@
         <v>49</v>
       </c>
       <c r="F315" t="n">
-        <v>25.699013</v>
+        <v>25.644819</v>
       </c>
       <c r="G315" t="n">
         <v>80200</v>
@@ -8339,7 +8339,7 @@
         <v>49.639999</v>
       </c>
       <c r="F316" t="n">
-        <v>26.034672</v>
+        <v>25.979773</v>
       </c>
       <c r="G316" t="n">
         <v>49200</v>
@@ -8364,7 +8364,7 @@
         <v>49.549999</v>
       </c>
       <c r="F317" t="n">
-        <v>25.987473</v>
+        <v>25.932671</v>
       </c>
       <c r="G317" t="n">
         <v>76800</v>
@@ -8389,7 +8389,7 @@
         <v>52.32</v>
       </c>
       <c r="F318" t="n">
-        <v>27.440252</v>
+        <v>27.382385</v>
       </c>
       <c r="G318" t="n">
         <v>85000</v>
@@ -8414,7 +8414,7 @@
         <v>49.130001</v>
       </c>
       <c r="F319" t="n">
-        <v>25.767197</v>
+        <v>25.712862</v>
       </c>
       <c r="G319" t="n">
         <v>77100</v>
@@ -8439,7 +8439,7 @@
         <v>49.82</v>
       </c>
       <c r="F320" t="n">
-        <v>26.129082</v>
+        <v>26.073978</v>
       </c>
       <c r="G320" t="n">
         <v>47800</v>
@@ -8464,7 +8464,7 @@
         <v>49.52</v>
       </c>
       <c r="F321" t="n">
-        <v>25.971741</v>
+        <v>25.916967</v>
       </c>
       <c r="G321" t="n">
         <v>53600</v>
@@ -8489,7 +8489,7 @@
         <v>51.16</v>
       </c>
       <c r="F322" t="n">
-        <v>26.831869</v>
+        <v>26.775288</v>
       </c>
       <c r="G322" t="n">
         <v>107200</v>
@@ -8514,7 +8514,7 @@
         <v>52.27</v>
       </c>
       <c r="F323" t="n">
-        <v>27.414032</v>
+        <v>27.356222</v>
       </c>
       <c r="G323" t="n">
         <v>95800</v>
@@ -8539,7 +8539,7 @@
         <v>55.669998</v>
       </c>
       <c r="F324" t="n">
-        <v>29.197227</v>
+        <v>29.135654</v>
       </c>
       <c r="G324" t="n">
         <v>141900</v>
@@ -8564,7 +8564,7 @@
         <v>57.470001</v>
       </c>
       <c r="F325" t="n">
-        <v>30.141275</v>
+        <v>30.077715</v>
       </c>
       <c r="G325" t="n">
         <v>213600</v>
@@ -8589,7 +8589,7 @@
         <v>56.419998</v>
       </c>
       <c r="F326" t="n">
-        <v>29.59058</v>
+        <v>29.528173</v>
       </c>
       <c r="G326" t="n">
         <v>146200</v>
@@ -8614,7 +8614,7 @@
         <v>58.240002</v>
       </c>
       <c r="F327" t="n">
-        <v>30.545115</v>
+        <v>30.480703</v>
       </c>
       <c r="G327" t="n">
         <v>86200</v>
@@ -8639,7 +8639,7 @@
         <v>55.700001</v>
       </c>
       <c r="F328" t="n">
-        <v>29.212965</v>
+        <v>29.15136</v>
       </c>
       <c r="G328" t="n">
         <v>86700</v>
@@ -8664,7 +8664,7 @@
         <v>53.639999</v>
       </c>
       <c r="F329" t="n">
-        <v>28.149736</v>
+        <v>28.090374</v>
       </c>
       <c r="G329" t="n">
         <v>142300</v>
@@ -8689,7 +8689,7 @@
         <v>54.939999</v>
       </c>
       <c r="F330" t="n">
-        <v>28.831963</v>
+        <v>28.771158</v>
       </c>
       <c r="G330" t="n">
         <v>142400</v>
@@ -8714,7 +8714,7 @@
         <v>54.630001</v>
       </c>
       <c r="F331" t="n">
-        <v>28.669281</v>
+        <v>28.608822</v>
       </c>
       <c r="G331" t="n">
         <v>122000</v>
@@ -8739,7 +8739,7 @@
         <v>56.509998</v>
       </c>
       <c r="F332" t="n">
-        <v>29.655886</v>
+        <v>29.593344</v>
       </c>
       <c r="G332" t="n">
         <v>104100</v>
@@ -8764,7 +8764,7 @@
         <v>59.669998</v>
       </c>
       <c r="F333" t="n">
-        <v>31.31422</v>
+        <v>31.248184</v>
       </c>
       <c r="G333" t="n">
         <v>416800</v>
@@ -8789,7 +8789,7 @@
         <v>58.950001</v>
       </c>
       <c r="F334" t="n">
-        <v>30.936371</v>
+        <v>30.871132</v>
       </c>
       <c r="G334" t="n">
         <v>132800</v>
@@ -8814,7 +8814,7 @@
         <v>62.990002</v>
       </c>
       <c r="F335" t="n">
-        <v>33.056526</v>
+        <v>32.986816</v>
       </c>
       <c r="G335" t="n">
         <v>237700</v>
@@ -8839,7 +8839,7 @@
         <v>60.650002</v>
       </c>
       <c r="F336" t="n">
-        <v>31.82852</v>
+        <v>31.761396</v>
       </c>
       <c r="G336" t="n">
         <v>209400</v>
@@ -8864,7 +8864,7 @@
         <v>62.150002</v>
       </c>
       <c r="F337" t="n">
-        <v>32.615696</v>
+        <v>32.546921</v>
       </c>
       <c r="G337" t="n">
         <v>87600</v>
@@ -8889,7 +8889,7 @@
         <v>61.740002</v>
       </c>
       <c r="F338" t="n">
-        <v>32.400536</v>
+        <v>32.332214</v>
       </c>
       <c r="G338" t="n">
         <v>88200</v>
@@ -8914,7 +8914,7 @@
         <v>62.41</v>
       </c>
       <c r="F339" t="n">
-        <v>32.752148</v>
+        <v>32.683075</v>
       </c>
       <c r="G339" t="n">
         <v>164400</v>
@@ -8939,7 +8939,7 @@
         <v>61.700001</v>
       </c>
       <c r="F340" t="n">
-        <v>32.379551</v>
+        <v>32.311264</v>
       </c>
       <c r="G340" t="n">
         <v>121200</v>
@@ -8964,7 +8964,7 @@
         <v>60.209999</v>
       </c>
       <c r="F341" t="n">
-        <v>31.597607</v>
+        <v>31.530972</v>
       </c>
       <c r="G341" t="n">
         <v>163500</v>
@@ -8989,7 +8989,7 @@
         <v>61.27</v>
       </c>
       <c r="F342" t="n">
-        <v>32.153877</v>
+        <v>32.086079</v>
       </c>
       <c r="G342" t="n">
         <v>181800</v>
@@ -9014,7 +9014,7 @@
         <v>62.900002</v>
       </c>
       <c r="F343" t="n">
-        <v>33.009296</v>
+        <v>32.939682</v>
       </c>
       <c r="G343" t="n">
         <v>118500</v>
@@ -9039,7 +9039,7 @@
         <v>63.27</v>
       </c>
       <c r="F344" t="n">
-        <v>33.203465</v>
+        <v>33.133446</v>
       </c>
       <c r="G344" t="n">
         <v>234300</v>
@@ -9064,7 +9064,7 @@
         <v>64.040001</v>
       </c>
       <c r="F345" t="n">
-        <v>33.607555</v>
+        <v>33.536682</v>
       </c>
       <c r="G345" t="n">
         <v>202600</v>
@@ -9089,7 +9089,7 @@
         <v>61.189999</v>
       </c>
       <c r="F346" t="n">
-        <v>32.1119</v>
+        <v>32.044186</v>
       </c>
       <c r="G346" t="n">
         <v>194100</v>
@@ -9114,7 +9114,7 @@
         <v>63.849998</v>
       </c>
       <c r="F347" t="n">
-        <v>33.507839</v>
+        <v>33.437183</v>
       </c>
       <c r="G347" t="n">
         <v>184500</v>
@@ -9139,7 +9139,7 @@
         <v>62.59</v>
       </c>
       <c r="F348" t="n">
-        <v>32.846611</v>
+        <v>32.77734</v>
       </c>
       <c r="G348" t="n">
         <v>228900</v>
@@ -9164,7 +9164,7 @@
         <v>65.489998</v>
       </c>
       <c r="F349" t="n">
-        <v>34.3685</v>
+        <v>34.296021</v>
       </c>
       <c r="G349" t="n">
         <v>236200</v>
@@ -9189,7 +9189,7 @@
         <v>68.18000000000001</v>
       </c>
       <c r="F350" t="n">
-        <v>35.806984</v>
+        <v>35.731461</v>
       </c>
       <c r="G350" t="n">
         <v>406600</v>
@@ -9214,7 +9214,7 @@
         <v>65.019997</v>
       </c>
       <c r="F351" t="n">
-        <v>34.1474</v>
+        <v>34.075382</v>
       </c>
       <c r="G351" t="n">
         <v>363700</v>
@@ -9239,7 +9239,7 @@
         <v>66.83000199999999</v>
       </c>
       <c r="F352" t="n">
-        <v>35.097984</v>
+        <v>35.023952</v>
       </c>
       <c r="G352" t="n">
         <v>217100</v>
@@ -9264,7 +9264,7 @@
         <v>68.19000200000001</v>
       </c>
       <c r="F353" t="n">
-        <v>35.812229</v>
+        <v>35.736713</v>
       </c>
       <c r="G353" t="n">
         <v>311300</v>
@@ -9289,7 +9289,7 @@
         <v>65.629997</v>
       </c>
       <c r="F354" t="n">
-        <v>34.467762</v>
+        <v>34.395084</v>
       </c>
       <c r="G354" t="n">
         <v>473900</v>
@@ -9314,7 +9314,7 @@
         <v>65.300003</v>
       </c>
       <c r="F355" t="n">
-        <v>34.294453</v>
+        <v>34.222126</v>
       </c>
       <c r="G355" t="n">
         <v>447500</v>
@@ -9339,7 +9339,7 @@
         <v>67.529999</v>
       </c>
       <c r="F356" t="n">
-        <v>35.465611</v>
+        <v>35.390816</v>
       </c>
       <c r="G356" t="n">
         <v>273600</v>
@@ -9364,7 +9364,7 @@
         <v>67.58000199999999</v>
       </c>
       <c r="F357" t="n">
-        <v>35.491871</v>
+        <v>35.417015</v>
       </c>
       <c r="G357" t="n">
         <v>265200</v>
@@ -9389,7 +9389,7 @@
         <v>67.779999</v>
       </c>
       <c r="F358" t="n">
-        <v>35.596901</v>
+        <v>35.521832</v>
       </c>
       <c r="G358" t="n">
         <v>149600</v>
@@ -9414,7 +9414,7 @@
         <v>70.089996</v>
       </c>
       <c r="F359" t="n">
-        <v>36.810074</v>
+        <v>36.732445</v>
       </c>
       <c r="G359" t="n">
         <v>329200</v>
@@ -9439,7 +9439,7 @@
         <v>69.69000200000001</v>
       </c>
       <c r="F360" t="n">
-        <v>36.600006</v>
+        <v>36.52282</v>
       </c>
       <c r="G360" t="n">
         <v>373700</v>
@@ -9464,7 +9464,7 @@
         <v>70.269997</v>
       </c>
       <c r="F361" t="n">
-        <v>36.90461</v>
+        <v>36.826782</v>
       </c>
       <c r="G361" t="n">
         <v>218200</v>
@@ -9489,7 +9489,7 @@
         <v>71.029999</v>
       </c>
       <c r="F362" t="n">
-        <v>37.303745</v>
+        <v>37.225079</v>
       </c>
       <c r="G362" t="n">
         <v>324400</v>
@@ -9514,7 +9514,7 @@
         <v>71.360001</v>
       </c>
       <c r="F363" t="n">
-        <v>37.477055</v>
+        <v>37.398026</v>
       </c>
       <c r="G363" t="n">
         <v>293900</v>
@@ -9539,7 +9539,7 @@
         <v>73.260002</v>
       </c>
       <c r="F364" t="n">
-        <v>38.474903</v>
+        <v>38.393768</v>
       </c>
       <c r="G364" t="n">
         <v>326200</v>
@@ -9564,7 +9564,7 @@
         <v>72.56999999999999</v>
       </c>
       <c r="F365" t="n">
-        <v>38.11253</v>
+        <v>38.032158</v>
       </c>
       <c r="G365" t="n">
         <v>348100</v>
@@ -9589,7 +9589,7 @@
         <v>75.980003</v>
       </c>
       <c r="F366" t="n">
-        <v>39.903404</v>
+        <v>39.81926</v>
       </c>
       <c r="G366" t="n">
         <v>229300</v>
@@ -9614,7 +9614,7 @@
         <v>81.220001</v>
       </c>
       <c r="F367" t="n">
-        <v>42.655357</v>
+        <v>42.565411</v>
       </c>
       <c r="G367" t="n">
         <v>441100</v>
@@ -9639,7 +9639,7 @@
         <v>85.139999</v>
       </c>
       <c r="F368" t="n">
-        <v>44.714081</v>
+        <v>44.619781</v>
       </c>
       <c r="G368" t="n">
         <v>588500</v>
@@ -9664,7 +9664,7 @@
         <v>87.08000199999999</v>
       </c>
       <c r="F369" t="n">
-        <v>45.732933</v>
+        <v>45.636497</v>
       </c>
       <c r="G369" t="n">
         <v>409500</v>
@@ -9689,7 +9689,7 @@
         <v>80.970001</v>
       </c>
       <c r="F370" t="n">
-        <v>42.524059</v>
+        <v>42.434395</v>
       </c>
       <c r="G370" t="n">
         <v>678300</v>
@@ -9714,7 +9714,7 @@
         <v>77.010002</v>
       </c>
       <c r="F371" t="n">
-        <v>40.470329</v>
+        <v>40.384995</v>
       </c>
       <c r="G371" t="n">
         <v>677300</v>
@@ -9739,7 +9739,7 @@
         <v>73.989998</v>
       </c>
       <c r="F372" t="n">
-        <v>38.883255</v>
+        <v>38.801262</v>
       </c>
       <c r="G372" t="n">
         <v>618300</v>
@@ -9764,7 +9764,7 @@
         <v>76.769997</v>
       </c>
       <c r="F373" t="n">
-        <v>40.344212</v>
+        <v>40.259121</v>
       </c>
       <c r="G373" t="n">
         <v>575000</v>
@@ -9789,7 +9789,7 @@
         <v>77.660004</v>
       </c>
       <c r="F374" t="n">
-        <v>40.811932</v>
+        <v>40.725857</v>
       </c>
       <c r="G374" t="n">
         <v>492500</v>
@@ -9814,7 +9814,7 @@
         <v>76.925003</v>
       </c>
       <c r="F375" t="n">
-        <v>40.425659</v>
+        <v>40.340416</v>
       </c>
       <c r="G375" t="n">
         <v>413600</v>
@@ -9839,7 +9839,7 @@
         <v>76.389999</v>
       </c>
       <c r="F376" t="n">
-        <v>40.144512</v>
+        <v>40.059849</v>
       </c>
       <c r="G376" t="n">
         <v>341700</v>
@@ -9864,7 +9864,7 @@
         <v>76.915001</v>
       </c>
       <c r="F377" t="n">
-        <v>40.42041</v>
+        <v>40.335167</v>
       </c>
       <c r="G377" t="n">
         <v>250400</v>
@@ -9889,7 +9889,7 @@
         <v>78.31999999999999</v>
       </c>
       <c r="F378" t="n">
-        <v>41.158764</v>
+        <v>41.071976</v>
       </c>
       <c r="G378" t="n">
         <v>208200</v>
@@ -9914,7 +9914,7 @@
         <v>80.19000200000001</v>
       </c>
       <c r="F379" t="n">
-        <v>42.141491</v>
+        <v>42.05262</v>
       </c>
       <c r="G379" t="n">
         <v>279600</v>
@@ -9939,7 +9939,7 @@
         <v>78.16999800000001</v>
       </c>
       <c r="F380" t="n">
-        <v>41.079933</v>
+        <v>40.993305</v>
       </c>
       <c r="G380" t="n">
         <v>356400</v>
@@ -9964,7 +9964,7 @@
         <v>78.25</v>
       </c>
       <c r="F381" t="n">
-        <v>41.121983</v>
+        <v>41.035263</v>
       </c>
       <c r="G381" t="n">
         <v>204300</v>
@@ -9989,7 +9989,7 @@
         <v>72.709999</v>
       </c>
       <c r="F382" t="n">
-        <v>38.210587</v>
+        <v>38.130024</v>
       </c>
       <c r="G382" t="n">
         <v>1064100</v>
@@ -10014,7 +10014,7 @@
         <v>71.69000200000001</v>
       </c>
       <c r="F383" t="n">
-        <v>37.674561</v>
+        <v>37.595116</v>
       </c>
       <c r="G383" t="n">
         <v>254000</v>
@@ -10039,7 +10039,7 @@
         <v>71.849998</v>
       </c>
       <c r="F384" t="n">
-        <v>37.758648</v>
+        <v>37.67902</v>
       </c>
       <c r="G384" t="n">
         <v>142600</v>
@@ -10064,7 +10064,7 @@
         <v>69</v>
       </c>
       <c r="F385" t="n">
-        <v>36.260918</v>
+        <v>36.184448</v>
       </c>
       <c r="G385" t="n">
         <v>311200</v>
@@ -10089,7 +10089,7 @@
         <v>66.769997</v>
       </c>
       <c r="F386" t="n">
-        <v>35.088997</v>
+        <v>35.014999</v>
       </c>
       <c r="G386" t="n">
         <v>691800</v>
@@ -10114,7 +10114,7 @@
         <v>67.83000199999999</v>
       </c>
       <c r="F387" t="n">
-        <v>35.646057</v>
+        <v>35.570881</v>
       </c>
       <c r="G387" t="n">
         <v>512400</v>
@@ -10139,7 +10139,7 @@
         <v>68.839996</v>
       </c>
       <c r="F388" t="n">
-        <v>36.176834</v>
+        <v>36.10054</v>
       </c>
       <c r="G388" t="n">
         <v>299000</v>
@@ -10164,7 +10164,7 @@
         <v>66.860001</v>
       </c>
       <c r="F389" t="n">
-        <v>35.136295</v>
+        <v>35.062202</v>
       </c>
       <c r="G389" t="n">
         <v>1837900</v>
@@ -10189,7 +10189,7 @@
         <v>65.260002</v>
       </c>
       <c r="F390" t="n">
-        <v>34.295475</v>
+        <v>34.223145</v>
       </c>
       <c r="G390" t="n">
         <v>504800</v>
@@ -10214,7 +10214,7 @@
         <v>65.290001</v>
       </c>
       <c r="F391" t="n">
-        <v>34.31123</v>
+        <v>34.238876</v>
       </c>
       <c r="G391" t="n">
         <v>278400</v>
@@ -10239,7 +10239,7 @@
         <v>66.110001</v>
       </c>
       <c r="F392" t="n">
-        <v>34.804535</v>
+        <v>34.731133</v>
       </c>
       <c r="G392" t="n">
         <v>101500</v>
@@ -10264,7 +10264,7 @@
         <v>64.94000200000001</v>
       </c>
       <c r="F393" t="n">
-        <v>34.188564</v>
+        <v>34.11647</v>
       </c>
       <c r="G393" t="n">
         <v>144800</v>
@@ -10289,7 +10289,7 @@
         <v>67.459999</v>
       </c>
       <c r="F394" t="n">
-        <v>35.515255</v>
+        <v>35.440357</v>
       </c>
       <c r="G394" t="n">
         <v>318700</v>
@@ -10314,7 +10314,7 @@
         <v>67.58000199999999</v>
       </c>
       <c r="F395" t="n">
-        <v>35.578438</v>
+        <v>35.503403</v>
       </c>
       <c r="G395" t="n">
         <v>218100</v>
@@ -10339,7 +10339,7 @@
         <v>62.360001</v>
       </c>
       <c r="F396" t="n">
-        <v>32.830292</v>
+        <v>32.761063</v>
       </c>
       <c r="G396" t="n">
         <v>285200</v>
@@ -10364,7 +10364,7 @@
         <v>62.299999</v>
       </c>
       <c r="F397" t="n">
-        <v>32.79871</v>
+        <v>32.729534</v>
       </c>
       <c r="G397" t="n">
         <v>384900</v>
@@ -10389,7 +10389,7 @@
         <v>64.56999999999999</v>
       </c>
       <c r="F398" t="n">
-        <v>33.993774</v>
+        <v>33.922092</v>
       </c>
       <c r="G398" t="n">
         <v>182400</v>
@@ -10414,7 +10414,7 @@
         <v>63.34</v>
       </c>
       <c r="F399" t="n">
-        <v>33.346226</v>
+        <v>33.275902</v>
       </c>
       <c r="G399" t="n">
         <v>147700</v>
@@ -10439,7 +10439,7 @@
         <v>62.209999</v>
       </c>
       <c r="F400" t="n">
-        <v>32.75132</v>
+        <v>32.682251</v>
       </c>
       <c r="G400" t="n">
         <v>184400</v>
@@ -10464,7 +10464,7 @@
         <v>63.5</v>
       </c>
       <c r="F401" t="n">
-        <v>33.430458</v>
+        <v>33.359962</v>
       </c>
       <c r="G401" t="n">
         <v>188600</v>
@@ -10489,7 +10489,7 @@
         <v>66.83000199999999</v>
       </c>
       <c r="F402" t="n">
-        <v>35.183586</v>
+        <v>35.109383</v>
       </c>
       <c r="G402" t="n">
         <v>197100</v>
@@ -10514,7 +10514,7 @@
         <v>66.040001</v>
       </c>
       <c r="F403" t="n">
-        <v>34.767677</v>
+        <v>34.69437</v>
       </c>
       <c r="G403" t="n">
         <v>118100</v>
@@ -10539,7 +10539,7 @@
         <v>64.209999</v>
       </c>
       <c r="F404" t="n">
-        <v>33.804249</v>
+        <v>33.732964</v>
       </c>
       <c r="G404" t="n">
         <v>192800</v>
@@ -10564,7 +10564,7 @@
         <v>62.860001</v>
       </c>
       <c r="F405" t="n">
-        <v>33.093521</v>
+        <v>33.023735</v>
       </c>
       <c r="G405" t="n">
         <v>184300</v>
@@ -10589,7 +10589,7 @@
         <v>60.700001</v>
       </c>
       <c r="F406" t="n">
-        <v>31.956356</v>
+        <v>31.888971</v>
       </c>
       <c r="G406" t="n">
         <v>160300</v>
@@ -10614,7 +10614,7 @@
         <v>61.09</v>
       </c>
       <c r="F407" t="n">
-        <v>32.161686</v>
+        <v>32.093861</v>
       </c>
       <c r="G407" t="n">
         <v>115800</v>
@@ -10639,7 +10639,7 @@
         <v>63.25</v>
       </c>
       <c r="F408" t="n">
-        <v>33.29884</v>
+        <v>33.228622</v>
       </c>
       <c r="G408" t="n">
         <v>121800</v>
@@ -10664,7 +10664,7 @@
         <v>65.910004</v>
       </c>
       <c r="F409" t="n">
-        <v>34.699242</v>
+        <v>34.626064</v>
       </c>
       <c r="G409" t="n">
         <v>157500</v>
@@ -10689,7 +10689,7 @@
         <v>65.720001</v>
       </c>
       <c r="F410" t="n">
-        <v>34.599213</v>
+        <v>34.526249</v>
       </c>
       <c r="G410" t="n">
         <v>87200</v>
@@ -10714,7 +10714,7 @@
         <v>66.75</v>
       </c>
       <c r="F411" t="n">
-        <v>35.14146</v>
+        <v>35.067364</v>
       </c>
       <c r="G411" t="n">
         <v>98300</v>
@@ -10739,7 +10739,7 @@
         <v>69.33000199999999</v>
       </c>
       <c r="F412" t="n">
-        <v>36.499741</v>
+        <v>36.422771</v>
       </c>
       <c r="G412" t="n">
         <v>229300</v>
@@ -10764,7 +10764,7 @@
         <v>72.129997</v>
       </c>
       <c r="F413" t="n">
-        <v>38.072144</v>
+        <v>37.991848</v>
       </c>
       <c r="G413" t="n">
         <v>155200</v>
@@ -10789,7 +10789,7 @@
         <v>72.870003</v>
       </c>
       <c r="F414" t="n">
-        <v>38.462727</v>
+        <v>38.381618</v>
       </c>
       <c r="G414" t="n">
         <v>160700</v>
@@ -10814,7 +10814,7 @@
         <v>71.040001</v>
       </c>
       <c r="F415" t="n">
-        <v>37.496815</v>
+        <v>37.417736</v>
       </c>
       <c r="G415" t="n">
         <v>119000</v>
@@ -10839,7 +10839,7 @@
         <v>71.610001</v>
       </c>
       <c r="F416" t="n">
-        <v>37.797672</v>
+        <v>37.717953</v>
       </c>
       <c r="G416" t="n">
         <v>148000</v>
@@ -10864,7 +10864,7 @@
         <v>67.489998</v>
       </c>
       <c r="F417" t="n">
-        <v>35.623024</v>
+        <v>35.547897</v>
       </c>
       <c r="G417" t="n">
         <v>175000</v>
@@ -10889,7 +10889,7 @@
         <v>67.05999799999999</v>
       </c>
       <c r="F418" t="n">
-        <v>35.396049</v>
+        <v>35.321411</v>
       </c>
       <c r="G418" t="n">
         <v>135900</v>
@@ -10914,7 +10914,7 @@
         <v>66.050003</v>
       </c>
       <c r="F419" t="n">
-        <v>34.862949</v>
+        <v>34.789436</v>
       </c>
       <c r="G419" t="n">
         <v>95300</v>
@@ -10939,7 +10939,7 @@
         <v>62.389999</v>
       </c>
       <c r="F420" t="n">
-        <v>32.931107</v>
+        <v>32.861664</v>
       </c>
       <c r="G420" t="n">
         <v>651700</v>
@@ -10964,7 +10964,7 @@
         <v>61.950001</v>
       </c>
       <c r="F421" t="n">
-        <v>32.698864</v>
+        <v>32.62991</v>
       </c>
       <c r="G421" t="n">
         <v>566300</v>
@@ -10989,7 +10989,7 @@
         <v>64.800003</v>
       </c>
       <c r="F422" t="n">
-        <v>34.203171</v>
+        <v>34.131039</v>
       </c>
       <c r="G422" t="n">
         <v>353600</v>
@@ -11014,7 +11014,7 @@
         <v>62.02</v>
       </c>
       <c r="F423" t="n">
-        <v>32.735813</v>
+        <v>32.666775</v>
       </c>
       <c r="G423" t="n">
         <v>214300</v>
@@ -11039,7 +11039,7 @@
         <v>61.650002</v>
       </c>
       <c r="F424" t="n">
-        <v>32.54052</v>
+        <v>32.471893</v>
       </c>
       <c r="G424" t="n">
         <v>214200</v>
@@ -11064,7 +11064,7 @@
         <v>63.689999</v>
       </c>
       <c r="F425" t="n">
-        <v>33.617275</v>
+        <v>33.546391</v>
       </c>
       <c r="G425" t="n">
         <v>169800</v>
@@ -11089,7 +11089,7 @@
         <v>63.900002</v>
       </c>
       <c r="F426" t="n">
-        <v>33.728119</v>
+        <v>33.656994</v>
       </c>
       <c r="G426" t="n">
         <v>102400</v>
@@ -11114,7 +11114,7 @@
         <v>61.400002</v>
       </c>
       <c r="F427" t="n">
-        <v>32.408558</v>
+        <v>32.340221</v>
       </c>
       <c r="G427" t="n">
         <v>205600</v>
@@ -11139,7 +11139,7 @@
         <v>61.009998</v>
       </c>
       <c r="F428" t="n">
-        <v>32.202709</v>
+        <v>32.134796</v>
       </c>
       <c r="G428" t="n">
         <v>93600</v>
@@ -11164,7 +11164,7 @@
         <v>62.630001</v>
       </c>
       <c r="F429" t="n">
-        <v>33.057789</v>
+        <v>32.988075</v>
       </c>
       <c r="G429" t="n">
         <v>170600</v>
@@ -11189,7 +11189,7 @@
         <v>62.700001</v>
       </c>
       <c r="F430" t="n">
-        <v>33.09473</v>
+        <v>33.02494</v>
       </c>
       <c r="G430" t="n">
         <v>176700</v>
@@ -11214,7 +11214,7 @@
         <v>60.674999</v>
       </c>
       <c r="F431" t="n">
-        <v>32.025887</v>
+        <v>31.958349</v>
       </c>
       <c r="G431" t="n">
         <v>105500</v>
@@ -11239,7 +11239,7 @@
         <v>60.389999</v>
       </c>
       <c r="F432" t="n">
-        <v>31.875456</v>
+        <v>31.808235</v>
       </c>
       <c r="G432" t="n">
         <v>122500</v>
@@ -11264,7 +11264,7 @@
         <v>60.529999</v>
       </c>
       <c r="F433" t="n">
-        <v>32.002342</v>
+        <v>31.934853</v>
       </c>
       <c r="G433" t="n">
         <v>113400</v>
@@ -11289,7 +11289,7 @@
         <v>60.849998</v>
       </c>
       <c r="F434" t="n">
-        <v>32.171524</v>
+        <v>32.10368</v>
       </c>
       <c r="G434" t="n">
         <v>84000</v>
@@ -11314,7 +11314,7 @@
         <v>61.110001</v>
       </c>
       <c r="F435" t="n">
-        <v>32.308983</v>
+        <v>32.240852</v>
       </c>
       <c r="G435" t="n">
         <v>64600</v>
@@ -11339,7 +11339,7 @@
         <v>59.720001</v>
       </c>
       <c r="F436" t="n">
-        <v>31.574091</v>
+        <v>31.507511</v>
       </c>
       <c r="G436" t="n">
         <v>112700</v>
@@ -11364,7 +11364,7 @@
         <v>59.48</v>
       </c>
       <c r="F437" t="n">
-        <v>31.447201</v>
+        <v>31.380888</v>
       </c>
       <c r="G437" t="n">
         <v>277700</v>
@@ -11389,7 +11389,7 @@
         <v>58.650002</v>
       </c>
       <c r="F438" t="n">
-        <v>31.008385</v>
+        <v>30.942991</v>
       </c>
       <c r="G438" t="n">
         <v>340600</v>
@@ -11414,7 +11414,7 @@
         <v>59.040001</v>
       </c>
       <c r="F439" t="n">
-        <v>31.214575</v>
+        <v>31.14875</v>
       </c>
       <c r="G439" t="n">
         <v>165100</v>
@@ -11439,7 +11439,7 @@
         <v>58.740002</v>
       </c>
       <c r="F440" t="n">
-        <v>31.055965</v>
+        <v>30.990471</v>
       </c>
       <c r="G440" t="n">
         <v>81200</v>
@@ -11464,7 +11464,7 @@
         <v>60.130001</v>
       </c>
       <c r="F441" t="n">
-        <v>31.790859</v>
+        <v>31.723822</v>
       </c>
       <c r="G441" t="n">
         <v>96700</v>
@@ -11489,7 +11489,7 @@
         <v>58.849998</v>
       </c>
       <c r="F442" t="n">
-        <v>31.11412</v>
+        <v>31.048508</v>
       </c>
       <c r="G442" t="n">
         <v>96300</v>
@@ -11514,7 +11514,7 @@
         <v>59.389999</v>
       </c>
       <c r="F443" t="n">
-        <v>31.399624</v>
+        <v>31.333403</v>
       </c>
       <c r="G443" t="n">
         <v>98600</v>
@@ -11539,7 +11539,7 @@
         <v>61.130001</v>
       </c>
       <c r="F444" t="n">
-        <v>32.319561</v>
+        <v>32.251411</v>
       </c>
       <c r="G444" t="n">
         <v>408300</v>
@@ -11564,7 +11564,7 @@
         <v>60.68</v>
       </c>
       <c r="F445" t="n">
-        <v>32.081646</v>
+        <v>32.013992</v>
       </c>
       <c r="G445" t="n">
         <v>70100</v>
@@ -11589,7 +11589,7 @@
         <v>60.950001</v>
       </c>
       <c r="F446" t="n">
-        <v>32.224396</v>
+        <v>32.156441</v>
       </c>
       <c r="G446" t="n">
         <v>119100</v>
@@ -11614,7 +11614,7 @@
         <v>62.259998</v>
       </c>
       <c r="F447" t="n">
-        <v>32.916996</v>
+        <v>32.84758</v>
       </c>
       <c r="G447" t="n">
         <v>178700</v>
@@ -11639,7 +11639,7 @@
         <v>64.699997</v>
       </c>
       <c r="F448" t="n">
-        <v>34.207027</v>
+        <v>34.134892</v>
       </c>
       <c r="G448" t="n">
         <v>265400</v>
@@ -11664,7 +11664,7 @@
         <v>64.639999</v>
       </c>
       <c r="F449" t="n">
-        <v>34.175312</v>
+        <v>34.103241</v>
       </c>
       <c r="G449" t="n">
         <v>107100</v>
@@ -11689,7 +11689,7 @@
         <v>67.980003</v>
       </c>
       <c r="F450" t="n">
-        <v>35.941177</v>
+        <v>35.865379</v>
       </c>
       <c r="G450" t="n">
         <v>138200</v>
@@ -11714,7 +11714,7 @@
         <v>67.68000000000001</v>
       </c>
       <c r="F451" t="n">
-        <v>35.782562</v>
+        <v>35.707104</v>
       </c>
       <c r="G451" t="n">
         <v>101000</v>
@@ -11739,7 +11739,7 @@
         <v>65.33000199999999</v>
       </c>
       <c r="F452" t="n">
-        <v>34.540112</v>
+        <v>34.46727</v>
       </c>
       <c r="G452" t="n">
         <v>169400</v>
@@ -11764,7 +11764,7 @@
         <v>65.81999999999999</v>
       </c>
       <c r="F453" t="n">
-        <v>34.799175</v>
+        <v>34.725784</v>
       </c>
       <c r="G453" t="n">
         <v>120900</v>
@@ -11789,7 +11789,7 @@
         <v>66.139999</v>
       </c>
       <c r="F454" t="n">
-        <v>34.968357</v>
+        <v>34.894619</v>
       </c>
       <c r="G454" t="n">
         <v>75200</v>
@@ -11814,7 +11814,7 @@
         <v>64.769997</v>
       </c>
       <c r="F455" t="n">
-        <v>34.244041</v>
+        <v>34.171829</v>
       </c>
       <c r="G455" t="n">
         <v>81500</v>
@@ -11839,7 +11839,7 @@
         <v>66.599998</v>
       </c>
       <c r="F456" t="n">
-        <v>35.211559</v>
+        <v>35.137306</v>
       </c>
       <c r="G456" t="n">
         <v>117300</v>
@@ -11864,7 +11864,7 @@
         <v>68.480003</v>
       </c>
       <c r="F457" t="n">
-        <v>36.205517</v>
+        <v>36.129169</v>
       </c>
       <c r="G457" t="n">
         <v>165000</v>
@@ -11889,7 +11889,7 @@
         <v>65.400002</v>
       </c>
       <c r="F458" t="n">
-        <v>34.577122</v>
+        <v>34.504208</v>
       </c>
       <c r="G458" t="n">
         <v>151900</v>
@@ -11914,7 +11914,7 @@
         <v>67.099998</v>
       </c>
       <c r="F459" t="n">
-        <v>35.475914</v>
+        <v>35.401108</v>
       </c>
       <c r="G459" t="n">
         <v>81600</v>
@@ -11939,7 +11939,7 @@
         <v>65.709999</v>
       </c>
       <c r="F460" t="n">
-        <v>34.741016</v>
+        <v>34.667759</v>
       </c>
       <c r="G460" t="n">
         <v>190100</v>
@@ -11964,7 +11964,7 @@
         <v>64.650002</v>
       </c>
       <c r="F461" t="n">
-        <v>34.180592</v>
+        <v>34.108517</v>
       </c>
       <c r="G461" t="n">
         <v>121000</v>
@@ -11989,7 +11989,7 @@
         <v>64.129997</v>
       </c>
       <c r="F462" t="n">
-        <v>33.90567</v>
+        <v>33.834164</v>
       </c>
       <c r="G462" t="n">
         <v>208500</v>
@@ -12014,7 +12014,7 @@
         <v>62.189999</v>
       </c>
       <c r="F463" t="n">
-        <v>32.879986</v>
+        <v>32.81065</v>
       </c>
       <c r="G463" t="n">
         <v>521500</v>
@@ -12039,7 +12039,7 @@
         <v>64.360001</v>
       </c>
       <c r="F464" t="n">
-        <v>34.027267</v>
+        <v>33.955517</v>
       </c>
       <c r="G464" t="n">
         <v>426600</v>
@@ -12064,7 +12064,7 @@
         <v>67.18000000000001</v>
       </c>
       <c r="F465" t="n">
-        <v>35.518211</v>
+        <v>35.443302</v>
       </c>
       <c r="G465" t="n">
         <v>214900</v>
@@ -12089,7 +12089,7 @@
         <v>69.860001</v>
       </c>
       <c r="F466" t="n">
-        <v>36.935135</v>
+        <v>36.85725</v>
       </c>
       <c r="G466" t="n">
         <v>430600</v>
@@ -12114,7 +12114,7 @@
         <v>65.410004</v>
       </c>
       <c r="F467" t="n">
-        <v>34.582409</v>
+        <v>34.50948</v>
       </c>
       <c r="G467" t="n">
         <v>292300</v>
@@ -12139,7 +12139,7 @@
         <v>64.160004</v>
       </c>
       <c r="F468" t="n">
-        <v>33.921524</v>
+        <v>33.849998</v>
       </c>
       <c r="G468" t="n">
         <v>121200</v>
@@ -12164,7 +12164,7 @@
         <v>63.709999</v>
       </c>
       <c r="F469" t="n">
-        <v>33.683613</v>
+        <v>33.612579</v>
       </c>
       <c r="G469" t="n">
         <v>72400</v>
@@ -12189,7 +12189,7 @@
         <v>64.150002</v>
       </c>
       <c r="F470" t="n">
-        <v>33.916241</v>
+        <v>33.844719</v>
       </c>
       <c r="G470" t="n">
         <v>51500</v>
@@ -12214,7 +12214,7 @@
         <v>61.5</v>
       </c>
       <c r="F471" t="n">
-        <v>32.515186</v>
+        <v>32.446613</v>
       </c>
       <c r="G471" t="n">
         <v>227300</v>
@@ -12239,7 +12239,7 @@
         <v>63.34</v>
       </c>
       <c r="F472" t="n">
-        <v>33.487999</v>
+        <v>33.417374</v>
       </c>
       <c r="G472" t="n">
         <v>61200</v>
@@ -12264,7 +12264,7 @@
         <v>63.080002</v>
       </c>
       <c r="F473" t="n">
-        <v>33.350536</v>
+        <v>33.280205</v>
       </c>
       <c r="G473" t="n">
         <v>123500</v>
@@ -12289,7 +12289,7 @@
         <v>64.349998</v>
       </c>
       <c r="F474" t="n">
-        <v>34.021984</v>
+        <v>33.950233</v>
       </c>
       <c r="G474" t="n">
         <v>140200</v>
@@ -12314,7 +12314,7 @@
         <v>63.959999</v>
       </c>
       <c r="F475" t="n">
-        <v>33.815792</v>
+        <v>33.744476</v>
       </c>
       <c r="G475" t="n">
         <v>64200</v>
@@ -12339,7 +12339,7 @@
         <v>63.23</v>
       </c>
       <c r="F476" t="n">
-        <v>33.429832</v>
+        <v>33.359341</v>
       </c>
       <c r="G476" t="n">
         <v>111300</v>
@@ -12364,7 +12364,7 @@
         <v>62.43</v>
       </c>
       <c r="F477" t="n">
-        <v>33.006882</v>
+        <v>32.937271</v>
       </c>
       <c r="G477" t="n">
         <v>66200</v>
@@ -12389,7 +12389,7 @@
         <v>60.950001</v>
       </c>
       <c r="F478" t="n">
-        <v>32.224396</v>
+        <v>32.156441</v>
       </c>
       <c r="G478" t="n">
         <v>71200</v>
@@ -12414,7 +12414,7 @@
         <v>60.799999</v>
       </c>
       <c r="F479" t="n">
-        <v>32.145096</v>
+        <v>32.077301</v>
       </c>
       <c r="G479" t="n">
         <v>68900</v>
@@ -12439,7 +12439,7 @@
         <v>60.73</v>
       </c>
       <c r="F480" t="n">
-        <v>32.108078</v>
+        <v>32.040375</v>
       </c>
       <c r="G480" t="n">
         <v>58400</v>
@@ -12464,7 +12464,7 @@
         <v>60.400002</v>
       </c>
       <c r="F481" t="n">
-        <v>31.933611</v>
+        <v>31.866266</v>
       </c>
       <c r="G481" t="n">
         <v>96100</v>
@@ -12489,7 +12489,7 @@
         <v>60.25</v>
       </c>
       <c r="F482" t="n">
-        <v>31.854303</v>
+        <v>31.78713</v>
       </c>
       <c r="G482" t="n">
         <v>97000</v>
@@ -12514,7 +12514,7 @@
         <v>60.919998</v>
       </c>
       <c r="F483" t="n">
-        <v>32.208538</v>
+        <v>32.14061</v>
       </c>
       <c r="G483" t="n">
         <v>56200</v>
@@ -12539,7 +12539,7 @@
         <v>59.720001</v>
       </c>
       <c r="F484" t="n">
-        <v>31.574091</v>
+        <v>31.507511</v>
       </c>
       <c r="G484" t="n">
         <v>29600</v>
@@ -12564,7 +12564,7 @@
         <v>60.060001</v>
       </c>
       <c r="F485" t="n">
-        <v>31.753853</v>
+        <v>31.686886</v>
       </c>
       <c r="G485" t="n">
         <v>52000</v>
@@ -12589,7 +12589,7 @@
         <v>60.41</v>
       </c>
       <c r="F486" t="n">
-        <v>31.938902</v>
+        <v>31.87154</v>
       </c>
       <c r="G486" t="n">
         <v>51100</v>
@@ -12614,7 +12614,7 @@
         <v>61.119999</v>
       </c>
       <c r="F487" t="n">
-        <v>32.314274</v>
+        <v>32.246128</v>
       </c>
       <c r="G487" t="n">
         <v>105200</v>
@@ -12639,7 +12639,7 @@
         <v>63.029999</v>
       </c>
       <c r="F488" t="n">
-        <v>33.324097</v>
+        <v>33.253819</v>
       </c>
       <c r="G488" t="n">
         <v>88700</v>
@@ -12664,7 +12664,7 @@
         <v>62.990002</v>
       </c>
       <c r="F489" t="n">
-        <v>33.302952</v>
+        <v>33.232719</v>
       </c>
       <c r="G489" t="n">
         <v>78600</v>
@@ -12689,7 +12689,7 @@
         <v>62.75</v>
       </c>
       <c r="F490" t="n">
-        <v>33.17606</v>
+        <v>33.106098</v>
       </c>
       <c r="G490" t="n">
         <v>108800</v>
@@ -12714,7 +12714,7 @@
         <v>62.369999</v>
       </c>
       <c r="F491" t="n">
-        <v>32.975147</v>
+        <v>32.905617</v>
       </c>
       <c r="G491" t="n">
         <v>83100</v>
@@ -12739,7 +12739,7 @@
         <v>64.33000199999999</v>
       </c>
       <c r="F492" t="n">
-        <v>34.011406</v>
+        <v>33.939686</v>
       </c>
       <c r="G492" t="n">
         <v>90600</v>
@@ -12764,7 +12764,7 @@
         <v>64.139999</v>
       </c>
       <c r="F493" t="n">
-        <v>33.910957</v>
+        <v>33.839443</v>
       </c>
       <c r="G493" t="n">
         <v>79100</v>
@@ -12789,7 +12789,7 @@
         <v>63.830002</v>
       </c>
       <c r="F494" t="n">
-        <v>33.799755</v>
+        <v>33.728481</v>
       </c>
       <c r="G494" t="n">
         <v>101500</v>
@@ -12814,7 +12814,7 @@
         <v>65.709999</v>
       </c>
       <c r="F495" t="n">
-        <v>34.795265</v>
+        <v>34.721889</v>
       </c>
       <c r="G495" t="n">
         <v>91600</v>
@@ -12839,7 +12839,7 @@
         <v>64.239998</v>
       </c>
       <c r="F496" t="n">
-        <v>34.016861</v>
+        <v>33.945126</v>
       </c>
       <c r="G496" t="n">
         <v>95800</v>
@@ -12864,7 +12864,7 @@
         <v>62.709999</v>
       </c>
       <c r="F497" t="n">
-        <v>33.206684</v>
+        <v>33.136658</v>
       </c>
       <c r="G497" t="n">
         <v>19900</v>
@@ -12889,7 +12889,7 @@
         <v>66.779999</v>
       </c>
       <c r="F498" t="n">
-        <v>35.361862</v>
+        <v>35.287285</v>
       </c>
       <c r="G498" t="n">
         <v>100400</v>
@@ -12914,7 +12914,7 @@
         <v>63.98</v>
       </c>
       <c r="F499" t="n">
-        <v>33.879185</v>
+        <v>33.807739</v>
       </c>
       <c r="G499" t="n">
         <v>85500</v>
@@ -12939,7 +12939,7 @@
         <v>64.028999</v>
       </c>
       <c r="F500" t="n">
-        <v>33.905132</v>
+        <v>33.833633</v>
       </c>
       <c r="G500" t="n">
         <v>42300</v>
@@ -12964,7 +12964,7 @@
         <v>65.400002</v>
       </c>
       <c r="F501" t="n">
-        <v>34.631111</v>
+        <v>34.558083</v>
       </c>
       <c r="G501" t="n">
         <v>44700</v>
@@ -12989,7 +12989,7 @@
         <v>66.16999800000001</v>
       </c>
       <c r="F502" t="n">
-        <v>35.038857</v>
+        <v>34.964958</v>
       </c>
       <c r="G502" t="n">
         <v>67300</v>
@@ -13014,7 +13014,7 @@
         <v>66.129997</v>
       </c>
       <c r="F503" t="n">
-        <v>35.017673</v>
+        <v>34.943817</v>
       </c>
       <c r="G503" t="n">
         <v>40700</v>
@@ -13039,7 +13039,7 @@
         <v>65.660004</v>
       </c>
       <c r="F504" t="n">
-        <v>34.768795</v>
+        <v>34.695465</v>
       </c>
       <c r="G504" t="n">
         <v>35800</v>
@@ -13064,7 +13064,7 @@
         <v>65.612999</v>
       </c>
       <c r="F505" t="n">
-        <v>34.743904</v>
+        <v>34.670635</v>
       </c>
       <c r="G505" t="n">
         <v>46400</v>
@@ -13089,7 +13089,7 @@
         <v>63.73</v>
       </c>
       <c r="F506" t="n">
-        <v>33.746799</v>
+        <v>33.675636</v>
       </c>
       <c r="G506" t="n">
         <v>54300</v>
@@ -13114,7 +13114,7 @@
         <v>64.639999</v>
       </c>
       <c r="F507" t="n">
-        <v>34.228672</v>
+        <v>34.15649</v>
       </c>
       <c r="G507" t="n">
         <v>59700</v>
@@ -13139,7 +13139,7 @@
         <v>65.470001</v>
       </c>
       <c r="F508" t="n">
-        <v>34.668179</v>
+        <v>34.595074</v>
       </c>
       <c r="G508" t="n">
         <v>35600</v>
@@ -13164,7 +13164,7 @@
         <v>65.019997</v>
       </c>
       <c r="F509" t="n">
-        <v>34.429893</v>
+        <v>34.357288</v>
       </c>
       <c r="G509" t="n">
         <v>42100</v>
@@ -13189,7 +13189,7 @@
         <v>65.37400100000001</v>
       </c>
       <c r="F510" t="n">
-        <v>34.61734</v>
+        <v>34.544342</v>
       </c>
       <c r="G510" t="n">
         <v>39100</v>
@@ -13214,7 +13214,7 @@
         <v>66.25</v>
       </c>
       <c r="F511" t="n">
-        <v>35.081211</v>
+        <v>35.007233</v>
       </c>
       <c r="G511" t="n">
         <v>52200</v>
@@ -13239,7 +13239,7 @@
         <v>67.360001</v>
       </c>
       <c r="F512" t="n">
-        <v>35.668987</v>
+        <v>35.593769</v>
       </c>
       <c r="G512" t="n">
         <v>54200</v>
@@ -13264,7 +13264,7 @@
         <v>68.725998</v>
       </c>
       <c r="F513" t="n">
-        <v>36.392323</v>
+        <v>36.315575</v>
       </c>
       <c r="G513" t="n">
         <v>34100</v>
@@ -13289,7 +13289,7 @@
         <v>68.089996</v>
       </c>
       <c r="F514" t="n">
-        <v>36.055546</v>
+        <v>35.979504</v>
       </c>
       <c r="G514" t="n">
         <v>54900</v>
@@ -13314,7 +13314,7 @@
         <v>68.410004</v>
       </c>
       <c r="F515" t="n">
-        <v>36.224991</v>
+        <v>36.148598</v>
       </c>
       <c r="G515" t="n">
         <v>40300</v>
@@ -13339,7 +13339,7 @@
         <v>68.160004</v>
       </c>
       <c r="F516" t="n">
-        <v>36.145451</v>
+        <v>36.069221</v>
       </c>
       <c r="G516" t="n">
         <v>53400</v>
@@ -13364,7 +13364,7 @@
         <v>67.760002</v>
       </c>
       <c r="F517" t="n">
-        <v>35.933331</v>
+        <v>35.857555</v>
       </c>
       <c r="G517" t="n">
         <v>67400</v>
@@ -13389,7 +13389,7 @@
         <v>66.25</v>
       </c>
       <c r="F518" t="n">
-        <v>35.132568</v>
+        <v>35.058479</v>
       </c>
       <c r="G518" t="n">
         <v>60200</v>
@@ -13414,7 +13414,7 @@
         <v>66.099998</v>
       </c>
       <c r="F519" t="n">
-        <v>35.053024</v>
+        <v>34.979103</v>
       </c>
       <c r="G519" t="n">
         <v>217100</v>
@@ -13439,7 +13439,7 @@
         <v>65.699997</v>
       </c>
       <c r="F520" t="n">
-        <v>34.8409</v>
+        <v>34.767429</v>
       </c>
       <c r="G520" t="n">
         <v>180500</v>
@@ -13464,7 +13464,7 @@
         <v>66.67800099999999</v>
       </c>
       <c r="F521" t="n">
-        <v>35.359539</v>
+        <v>35.284973</v>
       </c>
       <c r="G521" t="n">
         <v>111800</v>
@@ -13489,7 +13489,7 @@
         <v>66.150002</v>
       </c>
       <c r="F522" t="n">
-        <v>35.079536</v>
+        <v>35.005566</v>
       </c>
       <c r="G522" t="n">
         <v>78000</v>
@@ -13514,7 +13514,7 @@
         <v>64.860001</v>
       </c>
       <c r="F523" t="n">
-        <v>34.395451</v>
+        <v>34.32291</v>
       </c>
       <c r="G523" t="n">
         <v>54800</v>
@@ -13539,7 +13539,7 @@
         <v>66</v>
       </c>
       <c r="F524" t="n">
-        <v>34.999992</v>
+        <v>34.926178</v>
       </c>
       <c r="G524" t="n">
         <v>51300</v>
@@ -13564,7 +13564,7 @@
         <v>65.030998</v>
       </c>
       <c r="F525" t="n">
-        <v>34.48613</v>
+        <v>34.413406</v>
       </c>
       <c r="G525" t="n">
         <v>121600</v>
@@ -13589,7 +13589,7 @@
         <v>64.650002</v>
       </c>
       <c r="F526" t="n">
-        <v>34.284081</v>
+        <v>34.211784</v>
       </c>
       <c r="G526" t="n">
         <v>43800</v>
@@ -13614,7 +13614,7 @@
         <v>63.772999</v>
       </c>
       <c r="F527" t="n">
-        <v>33.819008</v>
+        <v>33.747688</v>
       </c>
       <c r="G527" t="n">
         <v>35300</v>
@@ -13639,7 +13639,7 @@
         <v>64.91999800000001</v>
       </c>
       <c r="F528" t="n">
-        <v>34.427261</v>
+        <v>34.35466</v>
       </c>
       <c r="G528" t="n">
         <v>100500</v>
@@ -13664,7 +13664,7 @@
         <v>63.169998</v>
       </c>
       <c r="F529" t="n">
-        <v>33.499233</v>
+        <v>33.428593</v>
       </c>
       <c r="G529" t="n">
         <v>214100</v>
@@ -13689,7 +13689,7 @@
         <v>62.330002</v>
       </c>
       <c r="F530" t="n">
-        <v>33.053783</v>
+        <v>32.984077</v>
       </c>
       <c r="G530" t="n">
         <v>131900</v>
@@ -13714,7 +13714,7 @@
         <v>62.77</v>
       </c>
       <c r="F531" t="n">
-        <v>33.287113</v>
+        <v>33.216923</v>
       </c>
       <c r="G531" t="n">
         <v>193900</v>
@@ -13739,7 +13739,7 @@
         <v>61.529999</v>
       </c>
       <c r="F532" t="n">
-        <v>32.629539</v>
+        <v>32.560726</v>
       </c>
       <c r="G532" t="n">
         <v>129800</v>
@@ -13764,7 +13764,7 @@
         <v>61.369999</v>
       </c>
       <c r="F533" t="n">
-        <v>32.544693</v>
+        <v>32.476059</v>
       </c>
       <c r="G533" t="n">
         <v>92000</v>
@@ -13789,7 +13789,7 @@
         <v>62.73</v>
       </c>
       <c r="F534" t="n">
-        <v>33.2659</v>
+        <v>33.195747</v>
       </c>
       <c r="G534" t="n">
         <v>69000</v>
@@ -13814,7 +13814,7 @@
         <v>61.470001</v>
       </c>
       <c r="F535" t="n">
-        <v>32.597721</v>
+        <v>32.52898</v>
       </c>
       <c r="G535" t="n">
         <v>108900</v>
@@ -13839,7 +13839,7 @@
         <v>61.948002</v>
       </c>
       <c r="F536" t="n">
-        <v>32.851208</v>
+        <v>32.781929</v>
       </c>
       <c r="G536" t="n">
         <v>145100</v>
@@ -13864,7 +13864,7 @@
         <v>62.150002</v>
       </c>
       <c r="F537" t="n">
-        <v>33.011616</v>
+        <v>32.942001</v>
       </c>
       <c r="G537" t="n">
         <v>44300</v>
@@ -13889,7 +13889,7 @@
         <v>61.508999</v>
       </c>
       <c r="F538" t="n">
-        <v>32.671143</v>
+        <v>32.602242</v>
       </c>
       <c r="G538" t="n">
         <v>69400</v>
@@ -13914,7 +13914,7 @@
         <v>63.599998</v>
       </c>
       <c r="F539" t="n">
-        <v>33.781799</v>
+        <v>33.71056</v>
       </c>
       <c r="G539" t="n">
         <v>112500</v>
@@ -13939,7 +13939,7 @@
         <v>62.779999</v>
       </c>
       <c r="F540" t="n">
-        <v>33.346252</v>
+        <v>33.275925</v>
       </c>
       <c r="G540" t="n">
         <v>173600</v>
@@ -13964,7 +13964,7 @@
         <v>63.254002</v>
       </c>
       <c r="F541" t="n">
-        <v>33.598019</v>
+        <v>33.527164</v>
       </c>
       <c r="G541" t="n">
         <v>48200</v>
@@ -13989,7 +13989,7 @@
         <v>64.18000000000001</v>
       </c>
       <c r="F542" t="n">
-        <v>34.089867</v>
+        <v>34.017986</v>
       </c>
       <c r="G542" t="n">
         <v>78600</v>
@@ -14014,7 +14014,7 @@
         <v>66.489998</v>
       </c>
       <c r="F543" t="n">
-        <v>35.316849</v>
+        <v>35.242374</v>
       </c>
       <c r="G543" t="n">
         <v>107900</v>
@@ -14039,7 +14039,7 @@
         <v>68.900002</v>
       </c>
       <c r="F544" t="n">
-        <v>36.596947</v>
+        <v>36.519772</v>
       </c>
       <c r="G544" t="n">
         <v>192500</v>
@@ -14064,7 +14064,7 @@
         <v>69.25</v>
       </c>
       <c r="F545" t="n">
-        <v>36.782848</v>
+        <v>36.705292</v>
       </c>
       <c r="G545" t="n">
         <v>114800</v>
@@ -14089,7 +14089,7 @@
         <v>67.989998</v>
       </c>
       <c r="F546" t="n">
-        <v>36.113594</v>
+        <v>36.037441</v>
       </c>
       <c r="G546" t="n">
         <v>106800</v>
@@ -14114,7 +14114,7 @@
         <v>66.785004</v>
       </c>
       <c r="F547" t="n">
-        <v>35.473545</v>
+        <v>35.398743</v>
       </c>
       <c r="G547" t="n">
         <v>130600</v>
@@ -14139,7 +14139,7 @@
         <v>65.360001</v>
       </c>
       <c r="F548" t="n">
-        <v>34.716644</v>
+        <v>34.643429</v>
       </c>
       <c r="G548" t="n">
         <v>98800</v>
@@ -14164,7 +14164,7 @@
         <v>64.389999</v>
       </c>
       <c r="F549" t="n">
-        <v>34.201412</v>
+        <v>34.129295</v>
       </c>
       <c r="G549" t="n">
         <v>63100</v>
@@ -14189,7 +14189,7 @@
         <v>63.43</v>
       </c>
       <c r="F550" t="n">
-        <v>33.691505</v>
+        <v>33.620453</v>
       </c>
       <c r="G550" t="n">
         <v>72900</v>
@@ -14214,7 +14214,7 @@
         <v>62.82</v>
       </c>
       <c r="F551" t="n">
-        <v>33.367493</v>
+        <v>33.297127</v>
       </c>
       <c r="G551" t="n">
         <v>83400</v>
@@ -14239,7 +14239,7 @@
         <v>61.790001</v>
       </c>
       <c r="F552" t="n">
-        <v>32.820396</v>
+        <v>32.751186</v>
       </c>
       <c r="G552" t="n">
         <v>127400</v>
@@ -14264,7 +14264,7 @@
         <v>63.48</v>
       </c>
       <c r="F553" t="n">
-        <v>33.71806</v>
+        <v>33.646954</v>
       </c>
       <c r="G553" t="n">
         <v>108300</v>
@@ -14289,7 +14289,7 @@
         <v>64.139999</v>
       </c>
       <c r="F554" t="n">
-        <v>34.068626</v>
+        <v>33.996777</v>
       </c>
       <c r="G554" t="n">
         <v>76200</v>
@@ -14314,7 +14314,7 @@
         <v>64.040001</v>
       </c>
       <c r="F555" t="n">
-        <v>34.015507</v>
+        <v>33.943779</v>
       </c>
       <c r="G555" t="n">
         <v>75800</v>
@@ -14339,7 +14339,7 @@
         <v>64.32199900000001</v>
       </c>
       <c r="F556" t="n">
-        <v>34.165291</v>
+        <v>34.093246</v>
       </c>
       <c r="G556" t="n">
         <v>106600</v>
@@ -14364,7 +14364,7 @@
         <v>64.139999</v>
       </c>
       <c r="F557" t="n">
-        <v>34.121674</v>
+        <v>34.049713</v>
       </c>
       <c r="G557" t="n">
         <v>101200</v>
@@ -14389,7 +14389,7 @@
         <v>66.839996</v>
       </c>
       <c r="F558" t="n">
-        <v>35.558037</v>
+        <v>35.483047</v>
       </c>
       <c r="G558" t="n">
         <v>419600</v>
@@ -14414,7 +14414,7 @@
         <v>68.089996</v>
       </c>
       <c r="F559" t="n">
-        <v>36.223026</v>
+        <v>36.146633</v>
       </c>
       <c r="G559" t="n">
         <v>211700</v>
@@ -14439,7 +14439,7 @@
         <v>67.739998</v>
       </c>
       <c r="F560" t="n">
-        <v>36.036827</v>
+        <v>35.960835</v>
       </c>
       <c r="G560" t="n">
         <v>127700</v>
@@ -14464,7 +14464,7 @@
         <v>69.790001</v>
       </c>
       <c r="F561" t="n">
-        <v>37.127403</v>
+        <v>37.049107</v>
       </c>
       <c r="G561" t="n">
         <v>157600</v>
@@ -14489,7 +14489,7 @@
         <v>72.139999</v>
       </c>
       <c r="F562" t="n">
-        <v>38.377571</v>
+        <v>38.296638</v>
       </c>
       <c r="G562" t="n">
         <v>313800</v>
@@ -14514,7 +14514,7 @@
         <v>77.31999999999999</v>
       </c>
       <c r="F563" t="n">
-        <v>41.133266</v>
+        <v>41.046524</v>
       </c>
       <c r="G563" t="n">
         <v>369300</v>
@@ -14539,7 +14539,7 @@
         <v>76.389999</v>
       </c>
       <c r="F564" t="n">
-        <v>40.638515</v>
+        <v>40.552822</v>
       </c>
       <c r="G564" t="n">
         <v>173600</v>
@@ -14564,7 +14564,7 @@
         <v>77.83000199999999</v>
       </c>
       <c r="F565" t="n">
-        <v>41.404579</v>
+        <v>41.317272</v>
       </c>
       <c r="G565" t="n">
         <v>120300</v>
@@ -14589,7 +14589,7 @@
         <v>76.269997</v>
       </c>
       <c r="F566" t="n">
-        <v>40.574684</v>
+        <v>40.48912</v>
       </c>
       <c r="G566" t="n">
         <v>170100</v>
@@ -14614,7 +14614,7 @@
         <v>75.66999800000001</v>
       </c>
       <c r="F567" t="n">
-        <v>40.255493</v>
+        <v>40.170601</v>
       </c>
       <c r="G567" t="n">
         <v>160700</v>
@@ -14639,7 +14639,7 @@
         <v>76.714996</v>
       </c>
       <c r="F568" t="n">
-        <v>40.811413</v>
+        <v>40.725349</v>
       </c>
       <c r="G568" t="n">
         <v>188700</v>
@@ -14664,7 +14664,7 @@
         <v>76.81999999999999</v>
       </c>
       <c r="F569" t="n">
-        <v>40.867275</v>
+        <v>40.78109</v>
       </c>
       <c r="G569" t="n">
         <v>159200</v>
@@ -14689,7 +14689,7 @@
         <v>76.660004</v>
       </c>
       <c r="F570" t="n">
-        <v>40.782154</v>
+        <v>40.696159</v>
       </c>
       <c r="G570" t="n">
         <v>203600</v>
@@ -14714,7 +14714,7 @@
         <v>78.720001</v>
       </c>
       <c r="F571" t="n">
-        <v>41.878052</v>
+        <v>41.789738</v>
       </c>
       <c r="G571" t="n">
         <v>133500</v>
@@ -14739,7 +14739,7 @@
         <v>79.599998</v>
       </c>
       <c r="F572" t="n">
-        <v>42.346195</v>
+        <v>42.256901</v>
       </c>
       <c r="G572" t="n">
         <v>119500</v>
@@ -14764,7 +14764,7 @@
         <v>81.889999</v>
       </c>
       <c r="F573" t="n">
-        <v>43.564453</v>
+        <v>43.472584</v>
       </c>
       <c r="G573" t="n">
         <v>321600</v>
@@ -14789,7 +14789,7 @@
         <v>82.18000000000001</v>
       </c>
       <c r="F574" t="n">
-        <v>43.718735</v>
+        <v>43.626534</v>
       </c>
       <c r="G574" t="n">
         <v>297100</v>
@@ -14814,7 +14814,7 @@
         <v>85.489998</v>
       </c>
       <c r="F575" t="n">
-        <v>45.479603</v>
+        <v>45.383698</v>
       </c>
       <c r="G575" t="n">
         <v>213500</v>
@@ -14839,7 +14839,7 @@
         <v>84.510002</v>
       </c>
       <c r="F576" t="n">
-        <v>44.958256</v>
+        <v>44.863449</v>
       </c>
       <c r="G576" t="n">
         <v>113000</v>
@@ -14864,7 +14864,7 @@
         <v>80.339996</v>
       </c>
       <c r="F577" t="n">
-        <v>42.739864</v>
+        <v>42.649734</v>
       </c>
       <c r="G577" t="n">
         <v>196300</v>
@@ -14889,7 +14889,7 @@
         <v>80.279999</v>
       </c>
       <c r="F578" t="n">
-        <v>42.707947</v>
+        <v>42.617886</v>
       </c>
       <c r="G578" t="n">
         <v>112400</v>
@@ -14914,7 +14914,7 @@
         <v>79.029999</v>
       </c>
       <c r="F579" t="n">
-        <v>42.042969</v>
+        <v>41.9543</v>
       </c>
       <c r="G579" t="n">
         <v>146100</v>
@@ -14939,7 +14939,7 @@
         <v>77.449997</v>
       </c>
       <c r="F580" t="n">
-        <v>41.254623</v>
+        <v>41.167629</v>
       </c>
       <c r="G580" t="n">
         <v>237900</v>
@@ -14964,7 +14964,7 @@
         <v>76.5</v>
       </c>
       <c r="F581" t="n">
-        <v>40.748596</v>
+        <v>40.662666</v>
       </c>
       <c r="G581" t="n">
         <v>478000</v>
@@ -14989,7 +14989,7 @@
         <v>76.650002</v>
       </c>
       <c r="F582" t="n">
-        <v>40.828495</v>
+        <v>40.742397</v>
       </c>
       <c r="G582" t="n">
         <v>146600</v>
@@ -15014,7 +15014,7 @@
         <v>76.339996</v>
       </c>
       <c r="F583" t="n">
-        <v>40.663368</v>
+        <v>40.577621</v>
       </c>
       <c r="G583" t="n">
         <v>150200</v>
@@ -15039,7 +15039,7 @@
         <v>79.129997</v>
       </c>
       <c r="F584" t="n">
-        <v>42.149498</v>
+        <v>42.060612</v>
       </c>
       <c r="G584" t="n">
         <v>297400</v>
@@ -15064,7 +15064,7 @@
         <v>81.339996</v>
       </c>
       <c r="F585" t="n">
-        <v>43.326683</v>
+        <v>43.235313</v>
       </c>
       <c r="G585" t="n">
         <v>144800</v>
@@ -15089,7 +15089,7 @@
         <v>80.989998</v>
       </c>
       <c r="F586" t="n">
-        <v>43.140247</v>
+        <v>43.049274</v>
       </c>
       <c r="G586" t="n">
         <v>151000</v>
@@ -15114,7 +15114,7 @@
         <v>81</v>
       </c>
       <c r="F587" t="n">
-        <v>43.145576</v>
+        <v>43.054585</v>
       </c>
       <c r="G587" t="n">
         <v>36700</v>
@@ -15139,7 +15139,7 @@
         <v>80.650002</v>
       </c>
       <c r="F588" t="n">
-        <v>42.959145</v>
+        <v>42.868553</v>
       </c>
       <c r="G588" t="n">
         <v>104200</v>
@@ -15164,7 +15164,7 @@
         <v>81.66999800000001</v>
       </c>
       <c r="F589" t="n">
-        <v>43.502457</v>
+        <v>43.410717</v>
       </c>
       <c r="G589" t="n">
         <v>128200</v>
@@ -15189,7 +15189,7 @@
         <v>80.387001</v>
       </c>
       <c r="F590" t="n">
-        <v>42.819054</v>
+        <v>42.72876</v>
       </c>
       <c r="G590" t="n">
         <v>61600</v>
@@ -15214,7 +15214,7 @@
         <v>80.639999</v>
       </c>
       <c r="F591" t="n">
-        <v>42.953819</v>
+        <v>42.863235</v>
       </c>
       <c r="G591" t="n">
         <v>147900</v>
@@ -15239,7 +15239,7 @@
         <v>80.760002</v>
       </c>
       <c r="F592" t="n">
-        <v>43.017735</v>
+        <v>42.927021</v>
       </c>
       <c r="G592" t="n">
         <v>98000</v>
@@ -15264,7 +15264,7 @@
         <v>81.470001</v>
       </c>
       <c r="F593" t="n">
-        <v>43.395927</v>
+        <v>43.304413</v>
       </c>
       <c r="G593" t="n">
         <v>88800</v>
@@ -15289,7 +15289,7 @@
         <v>80.80999799999999</v>
       </c>
       <c r="F594" t="n">
-        <v>43.044373</v>
+        <v>42.953598</v>
       </c>
       <c r="G594" t="n">
         <v>80000</v>
@@ -15314,7 +15314,7 @@
         <v>81.839996</v>
       </c>
       <c r="F595" t="n">
-        <v>43.59301</v>
+        <v>43.501076</v>
       </c>
       <c r="G595" t="n">
         <v>47200</v>
@@ -15339,7 +15339,7 @@
         <v>81.239998</v>
       </c>
       <c r="F596" t="n">
-        <v>43.273411</v>
+        <v>43.182159</v>
       </c>
       <c r="G596" t="n">
         <v>50700</v>
@@ -15364,7 +15364,7 @@
         <v>85.910004</v>
       </c>
       <c r="F597" t="n">
-        <v>45.760944</v>
+        <v>45.664444</v>
       </c>
       <c r="G597" t="n">
         <v>288500</v>
@@ -15389,7 +15389,7 @@
         <v>85.010002</v>
       </c>
       <c r="F598" t="n">
-        <v>45.281548</v>
+        <v>45.186058</v>
       </c>
       <c r="G598" t="n">
         <v>150400</v>
@@ -15414,7 +15414,7 @@
         <v>90.610001</v>
       </c>
       <c r="F599" t="n">
-        <v>48.26445</v>
+        <v>48.162674</v>
       </c>
       <c r="G599" t="n">
         <v>195700</v>
@@ -15439,7 +15439,7 @@
         <v>92.120003</v>
       </c>
       <c r="F600" t="n">
-        <v>49.068775</v>
+        <v>48.965294</v>
       </c>
       <c r="G600" t="n">
         <v>230800</v>
@@ -15464,7 +15464,7 @@
         <v>94.16999800000001</v>
       </c>
       <c r="F601" t="n">
-        <v>50.215233</v>
+        <v>50.109344</v>
       </c>
       <c r="G601" t="n">
         <v>200800</v>
@@ -15489,7 +15489,7 @@
         <v>94.30999799999999</v>
       </c>
       <c r="F602" t="n">
-        <v>50.28989</v>
+        <v>50.183834</v>
       </c>
       <c r="G602" t="n">
         <v>189200</v>
@@ -15514,7 +15514,7 @@
         <v>95.510002</v>
       </c>
       <c r="F603" t="n">
-        <v>50.929779</v>
+        <v>50.822372</v>
       </c>
       <c r="G603" t="n">
         <v>242400</v>
@@ -15539,7 +15539,7 @@
         <v>99.199997</v>
       </c>
       <c r="F604" t="n">
-        <v>52.89743</v>
+        <v>52.785881</v>
       </c>
       <c r="G604" t="n">
         <v>190000</v>
@@ -15564,7 +15564,7 @@
         <v>105.900002</v>
       </c>
       <c r="F605" t="n">
-        <v>56.470146</v>
+        <v>56.351063</v>
       </c>
       <c r="G605" t="n">
         <v>299600</v>
@@ -15589,7 +15589,7 @@
         <v>103.949997</v>
       </c>
       <c r="F606" t="n">
-        <v>55.430325</v>
+        <v>55.313435</v>
       </c>
       <c r="G606" t="n">
         <v>230100</v>
@@ -15614,7 +15614,7 @@
         <v>104.769997</v>
       </c>
       <c r="F607" t="n">
-        <v>55.86758</v>
+        <v>55.749767</v>
       </c>
       <c r="G607" t="n">
         <v>182300</v>
@@ -15639,7 +15639,7 @@
         <v>107.519997</v>
       </c>
       <c r="F608" t="n">
-        <v>57.333992</v>
+        <v>57.213085</v>
       </c>
       <c r="G608" t="n">
         <v>136700</v>
@@ -15664,7 +15664,7 @@
         <v>104.410004</v>
       </c>
       <c r="F609" t="n">
-        <v>55.675617</v>
+        <v>55.558208</v>
       </c>
       <c r="G609" t="n">
         <v>159900</v>
@@ -15689,7 +15689,7 @@
         <v>104.290001</v>
       </c>
       <c r="F610" t="n">
-        <v>55.611626</v>
+        <v>55.494354</v>
       </c>
       <c r="G610" t="n">
         <v>144400</v>
@@ -15714,7 +15714,7 @@
         <v>98.099998</v>
       </c>
       <c r="F611" t="n">
-        <v>52.310871</v>
+        <v>52.200558</v>
       </c>
       <c r="G611" t="n">
         <v>231700</v>
@@ -15739,7 +15739,7 @@
         <v>102.57</v>
       </c>
       <c r="F612" t="n">
-        <v>54.694454</v>
+        <v>54.579113</v>
       </c>
       <c r="G612" t="n">
         <v>199500</v>
@@ -15764,7 +15764,7 @@
         <v>99.56999999999999</v>
       </c>
       <c r="F613" t="n">
-        <v>53.094734</v>
+        <v>52.982765</v>
       </c>
       <c r="G613" t="n">
         <v>168900</v>
@@ -15789,7 +15789,7 @@
         <v>102</v>
       </c>
       <c r="F614" t="n">
-        <v>54.390511</v>
+        <v>54.27581</v>
       </c>
       <c r="G614" t="n">
         <v>115800</v>
@@ -15814,7 +15814,7 @@
         <v>104.029999</v>
       </c>
       <c r="F615" t="n">
-        <v>55.472984</v>
+        <v>55.356003</v>
       </c>
       <c r="G615" t="n">
         <v>134800</v>
@@ -15839,7 +15839,7 @@
         <v>106.019997</v>
       </c>
       <c r="F616" t="n">
-        <v>56.53413</v>
+        <v>56.414909</v>
       </c>
       <c r="G616" t="n">
         <v>116900</v>
@@ -15864,7 +15864,7 @@
         <v>111.029999</v>
       </c>
       <c r="F617" t="n">
-        <v>59.205666</v>
+        <v>59.080811</v>
       </c>
       <c r="G617" t="n">
         <v>214400</v>
@@ -15889,7 +15889,7 @@
         <v>111.449997</v>
       </c>
       <c r="F618" t="n">
-        <v>59.429626</v>
+        <v>59.304302</v>
       </c>
       <c r="G618" t="n">
         <v>244800</v>
@@ -15914,7 +15914,7 @@
         <v>108.230003</v>
       </c>
       <c r="F619" t="n">
-        <v>57.712601</v>
+        <v>57.590893</v>
       </c>
       <c r="G619" t="n">
         <v>271000</v>
@@ -15939,7 +15939,7 @@
         <v>104.730003</v>
       </c>
       <c r="F620" t="n">
-        <v>55.84626</v>
+        <v>55.728485</v>
       </c>
       <c r="G620" t="n">
         <v>152700</v>
@@ -15964,7 +15964,7 @@
         <v>109.300003</v>
       </c>
       <c r="F621" t="n">
-        <v>58.283161</v>
+        <v>58.160252</v>
       </c>
       <c r="G621" t="n">
         <v>73700</v>
@@ -15989,7 +15989,7 @@
         <v>106.620003</v>
       </c>
       <c r="F622" t="n">
-        <v>56.906143</v>
+        <v>56.78614</v>
       </c>
       <c r="G622" t="n">
         <v>88900</v>
@@ -16014,7 +16014,7 @@
         <v>107.089996</v>
       </c>
       <c r="F623" t="n">
-        <v>57.156994</v>
+        <v>57.036465</v>
       </c>
       <c r="G623" t="n">
         <v>60600</v>
@@ -16039,7 +16039,7 @@
         <v>107.82</v>
       </c>
       <c r="F624" t="n">
-        <v>57.546619</v>
+        <v>57.425262</v>
       </c>
       <c r="G624" t="n">
         <v>53300</v>
@@ -16064,7 +16064,7 @@
         <v>107.5</v>
       </c>
       <c r="F625" t="n">
-        <v>57.375824</v>
+        <v>57.254826</v>
       </c>
       <c r="G625" t="n">
         <v>59100</v>
@@ -16089,7 +16089,7 @@
         <v>103.419998</v>
       </c>
       <c r="F626" t="n">
-        <v>55.198212</v>
+        <v>55.081806</v>
       </c>
       <c r="G626" t="n">
         <v>157600</v>
@@ -16114,7 +16114,7 @@
         <v>99.400002</v>
       </c>
       <c r="F627" t="n">
-        <v>53.052624</v>
+        <v>52.940742</v>
       </c>
       <c r="G627" t="n">
         <v>305200</v>
@@ -16139,7 +16139,7 @@
         <v>99.18000000000001</v>
       </c>
       <c r="F628" t="n">
-        <v>52.935204</v>
+        <v>52.82357</v>
       </c>
       <c r="G628" t="n">
         <v>185500</v>
@@ -16164,7 +16164,7 @@
         <v>98.58000199999999</v>
       </c>
       <c r="F629" t="n">
-        <v>52.614967</v>
+        <v>52.504009</v>
       </c>
       <c r="G629" t="n">
         <v>105000</v>
@@ -16189,7 +16189,7 @@
         <v>96.610001</v>
       </c>
       <c r="F630" t="n">
-        <v>51.563519</v>
+        <v>51.454781</v>
       </c>
       <c r="G630" t="n">
         <v>91700</v>
@@ -16214,7 +16214,7 @@
         <v>92.730003</v>
       </c>
       <c r="F631" t="n">
-        <v>49.492653</v>
+        <v>49.388279</v>
       </c>
       <c r="G631" t="n">
         <v>104800</v>
@@ -16239,7 +16239,7 @@
         <v>96.43000000000001</v>
       </c>
       <c r="F632" t="n">
-        <v>51.467449</v>
+        <v>51.358913</v>
       </c>
       <c r="G632" t="n">
         <v>114800</v>
@@ -16264,7 +16264,7 @@
         <v>96.339996</v>
       </c>
       <c r="F633" t="n">
-        <v>51.419415</v>
+        <v>51.310974</v>
       </c>
       <c r="G633" t="n">
         <v>66400</v>
@@ -16289,7 +16289,7 @@
         <v>96.629997</v>
       </c>
       <c r="F634" t="n">
-        <v>51.574192</v>
+        <v>51.465431</v>
       </c>
       <c r="G634" t="n">
         <v>151600</v>
@@ -16314,7 +16314,7 @@
         <v>92.889999</v>
       </c>
       <c r="F635" t="n">
-        <v>49.578049</v>
+        <v>49.473499</v>
       </c>
       <c r="G635" t="n">
         <v>145600</v>
@@ -16339,7 +16339,7 @@
         <v>94.800003</v>
       </c>
       <c r="F636" t="n">
-        <v>50.597469</v>
+        <v>50.490768</v>
       </c>
       <c r="G636" t="n">
         <v>105000</v>
@@ -16364,7 +16364,7 @@
         <v>92.80999799999999</v>
       </c>
       <c r="F637" t="n">
-        <v>49.535347</v>
+        <v>49.430889</v>
       </c>
       <c r="G637" t="n">
         <v>90000</v>
@@ -16389,7 +16389,7 @@
         <v>91.699997</v>
       </c>
       <c r="F638" t="n">
-        <v>48.942909</v>
+        <v>48.839703</v>
       </c>
       <c r="G638" t="n">
         <v>72700</v>
@@ -16414,7 +16414,7 @@
         <v>90.139999</v>
       </c>
       <c r="F639" t="n">
-        <v>48.110294</v>
+        <v>48.008842</v>
       </c>
       <c r="G639" t="n">
         <v>226800</v>
@@ -16439,7 +16439,7 @@
         <v>90.709999</v>
       </c>
       <c r="F640" t="n">
-        <v>48.41452</v>
+        <v>48.31242</v>
       </c>
       <c r="G640" t="n">
         <v>98000</v>
@@ -16464,7 +16464,7 @@
         <v>89</v>
       </c>
       <c r="F641" t="n">
-        <v>47.501846</v>
+        <v>47.401672</v>
       </c>
       <c r="G641" t="n">
         <v>314800</v>
@@ -16489,7 +16489,7 @@
         <v>90.220001</v>
       </c>
       <c r="F642" t="n">
-        <v>48.152996</v>
+        <v>48.051445</v>
       </c>
       <c r="G642" t="n">
         <v>67900</v>
@@ -16514,7 +16514,7 @@
         <v>87.68000000000001</v>
       </c>
       <c r="F643" t="n">
-        <v>46.849251</v>
+        <v>46.750454</v>
       </c>
       <c r="G643" t="n">
         <v>67700</v>
@@ -16539,7 +16539,7 @@
         <v>87.55999799999999</v>
       </c>
       <c r="F644" t="n">
-        <v>46.785133</v>
+        <v>46.686474</v>
       </c>
       <c r="G644" t="n">
         <v>70800</v>
@@ -16564,7 +16564,7 @@
         <v>85.760002</v>
       </c>
       <c r="F645" t="n">
-        <v>45.823357</v>
+        <v>45.726723</v>
       </c>
       <c r="G645" t="n">
         <v>94400</v>
@@ -16589,7 +16589,7 @@
         <v>87.55999799999999</v>
       </c>
       <c r="F646" t="n">
-        <v>46.785133</v>
+        <v>46.686474</v>
       </c>
       <c r="G646" t="n">
         <v>46000</v>
@@ -16614,7 +16614,7 @@
         <v>85.089996</v>
       </c>
       <c r="F647" t="n">
-        <v>45.465359</v>
+        <v>45.36948</v>
       </c>
       <c r="G647" t="n">
         <v>43100</v>
@@ -16639,7 +16639,7 @@
         <v>85.790001</v>
       </c>
       <c r="F648" t="n">
-        <v>45.839386</v>
+        <v>45.742718</v>
       </c>
       <c r="G648" t="n">
         <v>52600</v>
@@ -16664,7 +16664,7 @@
         <v>81.879997</v>
       </c>
       <c r="F649" t="n">
-        <v>43.750187</v>
+        <v>43.657928</v>
       </c>
       <c r="G649" t="n">
         <v>92700</v>
@@ -16689,7 +16689,7 @@
         <v>79.75</v>
       </c>
       <c r="F650" t="n">
-        <v>42.612083</v>
+        <v>42.522228</v>
       </c>
       <c r="G650" t="n">
         <v>162600</v>
@@ -16714,7 +16714,7 @@
         <v>80.110001</v>
       </c>
       <c r="F651" t="n">
-        <v>42.804443</v>
+        <v>42.714176</v>
       </c>
       <c r="G651" t="n">
         <v>74400</v>
@@ -16739,7 +16739,7 @@
         <v>81.370003</v>
       </c>
       <c r="F652" t="n">
-        <v>43.477688</v>
+        <v>43.386005</v>
       </c>
       <c r="G652" t="n">
         <v>59800</v>
@@ -16764,7 +16764,7 @@
         <v>81.139999</v>
       </c>
       <c r="F653" t="n">
-        <v>43.354794</v>
+        <v>43.263363</v>
       </c>
       <c r="G653" t="n">
         <v>65700</v>
@@ -16789,7 +16789,7 @@
         <v>80.239998</v>
       </c>
       <c r="F654" t="n">
-        <v>42.873901</v>
+        <v>42.783489</v>
       </c>
       <c r="G654" t="n">
         <v>24900</v>
@@ -16814,7 +16814,7 @@
         <v>77.870003</v>
       </c>
       <c r="F655" t="n">
-        <v>41.607567</v>
+        <v>41.519821</v>
       </c>
       <c r="G655" t="n">
         <v>43200</v>
@@ -16839,7 +16839,7 @@
         <v>72.360001</v>
       </c>
       <c r="F656" t="n">
-        <v>38.663456</v>
+        <v>38.581921</v>
       </c>
       <c r="G656" t="n">
         <v>202300</v>
@@ -16864,7 +16864,7 @@
         <v>70.989998</v>
       </c>
       <c r="F657" t="n">
-        <v>37.931435</v>
+        <v>37.851444</v>
       </c>
       <c r="G657" t="n">
         <v>125100</v>
@@ -16889,7 +16889,7 @@
         <v>71.81999999999999</v>
       </c>
       <c r="F658" t="n">
-        <v>38.374924</v>
+        <v>38.293999</v>
       </c>
       <c r="G658" t="n">
         <v>92000</v>
@@ -16914,7 +16914,7 @@
         <v>71.480003</v>
       </c>
       <c r="F659" t="n">
-        <v>38.193256</v>
+        <v>38.112713</v>
       </c>
       <c r="G659" t="n">
         <v>145400</v>
@@ -16939,7 +16939,7 @@
         <v>71.05999799999999</v>
       </c>
       <c r="F660" t="n">
-        <v>37.968838</v>
+        <v>37.888771</v>
       </c>
       <c r="G660" t="n">
         <v>119400</v>
@@ -16964,7 +16964,7 @@
         <v>72.739998</v>
       </c>
       <c r="F661" t="n">
-        <v>38.866497</v>
+        <v>38.784531</v>
       </c>
       <c r="G661" t="n">
         <v>78200</v>
@@ -16989,7 +16989,7 @@
         <v>73.709999</v>
       </c>
       <c r="F662" t="n">
-        <v>39.384789</v>
+        <v>39.301731</v>
       </c>
       <c r="G662" t="n">
         <v>75700</v>
@@ -17014,7 +17014,7 @@
         <v>39.52</v>
       </c>
       <c r="F663" t="n">
-        <v>39.461674</v>
+        <v>39.378456</v>
       </c>
       <c r="G663" t="n">
         <v>102000</v>
@@ -17039,7 +17039,7 @@
         <v>38.75</v>
       </c>
       <c r="F664" t="n">
-        <v>38.69281</v>
+        <v>38.611217</v>
       </c>
       <c r="G664" t="n">
         <v>150100</v>
@@ -17064,7 +17064,7 @@
         <v>39.490002</v>
       </c>
       <c r="F665" t="n">
-        <v>39.431721</v>
+        <v>39.348564</v>
       </c>
       <c r="G665" t="n">
         <v>195100</v>
@@ -17089,7 +17089,7 @@
         <v>40</v>
       </c>
       <c r="F666" t="n">
-        <v>39.940964</v>
+        <v>39.856739</v>
       </c>
       <c r="G666" t="n">
         <v>83500</v>
@@ -17114,7 +17114,7 @@
         <v>40.439999</v>
       </c>
       <c r="F667" t="n">
-        <v>40.380314</v>
+        <v>40.295158</v>
       </c>
       <c r="G667" t="n">
         <v>158700</v>
@@ -17139,7 +17139,7 @@
         <v>40.860001</v>
       </c>
       <c r="F668" t="n">
-        <v>40.799698</v>
+        <v>40.713657</v>
       </c>
       <c r="G668" t="n">
         <v>178700</v>
@@ -17164,7 +17164,7 @@
         <v>43.150002</v>
       </c>
       <c r="F669" t="n">
-        <v>43.086319</v>
+        <v>42.995457</v>
       </c>
       <c r="G669" t="n">
         <v>244600</v>
@@ -17189,7 +17189,7 @@
         <v>44.029999</v>
       </c>
       <c r="F670" t="n">
-        <v>43.965015</v>
+        <v>43.872303</v>
       </c>
       <c r="G670" t="n">
         <v>175000</v>
@@ -17214,7 +17214,7 @@
         <v>43.849998</v>
       </c>
       <c r="F671" t="n">
-        <v>43.785282</v>
+        <v>43.692947</v>
       </c>
       <c r="G671" t="n">
         <v>95700</v>
@@ -17239,7 +17239,7 @@
         <v>43.950001</v>
       </c>
       <c r="F672" t="n">
-        <v>43.885136</v>
+        <v>43.792591</v>
       </c>
       <c r="G672" t="n">
         <v>97100</v>
@@ -17264,7 +17264,7 @@
         <v>44.369999</v>
       </c>
       <c r="F673" t="n">
-        <v>44.304516</v>
+        <v>44.211086</v>
       </c>
       <c r="G673" t="n">
         <v>86800</v>
@@ -17289,7 +17289,7 @@
         <v>43.540001</v>
       </c>
       <c r="F674" t="n">
-        <v>43.475742</v>
+        <v>43.38406</v>
       </c>
       <c r="G674" t="n">
         <v>218700</v>
@@ -17314,7 +17314,7 @@
         <v>43.130001</v>
       </c>
       <c r="F675" t="n">
-        <v>43.066345</v>
+        <v>42.975529</v>
       </c>
       <c r="G675" t="n">
         <v>157300</v>
@@ -17339,7 +17339,7 @@
         <v>45.549999</v>
       </c>
       <c r="F676" t="n">
-        <v>45.482773</v>
+        <v>45.386856</v>
       </c>
       <c r="G676" t="n">
         <v>318400</v>
@@ -17364,7 +17364,7 @@
         <v>44.860001</v>
       </c>
       <c r="F677" t="n">
-        <v>44.793793</v>
+        <v>44.699333</v>
       </c>
       <c r="G677" t="n">
         <v>192700</v>
@@ -17389,7 +17389,7 @@
         <v>46.82</v>
       </c>
       <c r="F678" t="n">
-        <v>46.7509</v>
+        <v>46.652309</v>
       </c>
       <c r="G678" t="n">
         <v>84600</v>
@@ -17414,7 +17414,7 @@
         <v>45.799999</v>
       </c>
       <c r="F679" t="n">
-        <v>45.732403</v>
+        <v>45.635963</v>
       </c>
       <c r="G679" t="n">
         <v>63500</v>
@@ -17439,7 +17439,7 @@
         <v>45.91</v>
       </c>
       <c r="F680" t="n">
-        <v>45.842243</v>
+        <v>45.745567</v>
       </c>
       <c r="G680" t="n">
         <v>249600</v>
@@ -17464,7 +17464,7 @@
         <v>46.73</v>
       </c>
       <c r="F681" t="n">
-        <v>46.661034</v>
+        <v>46.562634</v>
       </c>
       <c r="G681" t="n">
         <v>56600</v>
@@ -17489,7 +17489,7 @@
         <v>48.599998</v>
       </c>
       <c r="F682" t="n">
-        <v>48.528271</v>
+        <v>48.425934</v>
       </c>
       <c r="G682" t="n">
         <v>102500</v>
@@ -17514,7 +17514,7 @@
         <v>47.43</v>
       </c>
       <c r="F683" t="n">
-        <v>47.360001</v>
+        <v>47.260124</v>
       </c>
       <c r="G683" t="n">
         <v>135000</v>
@@ -17539,7 +17539,7 @@
         <v>47.529999</v>
       </c>
       <c r="F684" t="n">
-        <v>47.529999</v>
+        <v>47.429768</v>
       </c>
       <c r="G684" t="n">
         <v>58800</v>
@@ -17564,7 +17564,7 @@
         <v>46.27</v>
       </c>
       <c r="F685" t="n">
-        <v>46.27</v>
+        <v>46.172424</v>
       </c>
       <c r="G685" t="n">
         <v>132000</v>
@@ -17589,7 +17589,7 @@
         <v>44.48</v>
       </c>
       <c r="F686" t="n">
-        <v>44.48</v>
+        <v>44.3862</v>
       </c>
       <c r="G686" t="n">
         <v>327600</v>
@@ -17614,7 +17614,7 @@
         <v>43.48</v>
       </c>
       <c r="F687" t="n">
-        <v>43.48</v>
+        <v>43.388309</v>
       </c>
       <c r="G687" t="n">
         <v>463300</v>
@@ -17639,7 +17639,7 @@
         <v>41.389999</v>
       </c>
       <c r="F688" t="n">
-        <v>41.389999</v>
+        <v>41.302715</v>
       </c>
       <c r="G688" t="n">
         <v>115200</v>
@@ -17664,7 +17664,7 @@
         <v>44.439999</v>
       </c>
       <c r="F689" t="n">
-        <v>44.439999</v>
+        <v>44.346283</v>
       </c>
       <c r="G689" t="n">
         <v>304200</v>
@@ -17689,7 +17689,7 @@
         <v>46.400002</v>
       </c>
       <c r="F690" t="n">
-        <v>46.400002</v>
+        <v>46.302151</v>
       </c>
       <c r="G690" t="n">
         <v>185800</v>
@@ -17714,7 +17714,7 @@
         <v>44.799999</v>
       </c>
       <c r="F691" t="n">
-        <v>44.799999</v>
+        <v>44.705524</v>
       </c>
       <c r="G691" t="n">
         <v>115700</v>
@@ -17739,7 +17739,7 @@
         <v>45.599998</v>
       </c>
       <c r="F692" t="n">
-        <v>45.599998</v>
+        <v>45.503838</v>
       </c>
       <c r="G692" t="n">
         <v>112000</v>
@@ -17764,7 +17764,7 @@
         <v>47.259998</v>
       </c>
       <c r="F693" t="n">
-        <v>47.259998</v>
+        <v>47.160336</v>
       </c>
       <c r="G693" t="n">
         <v>171800</v>
@@ -17789,7 +17789,7 @@
         <v>47.470001</v>
       </c>
       <c r="F694" t="n">
-        <v>47.470001</v>
+        <v>47.369896</v>
       </c>
       <c r="G694" t="n">
         <v>92600</v>
@@ -17814,7 +17814,7 @@
         <v>47.43</v>
       </c>
       <c r="F695" t="n">
-        <v>47.43</v>
+        <v>47.329979</v>
       </c>
       <c r="G695" t="n">
         <v>56800</v>
@@ -17839,7 +17839,7 @@
         <v>50.66</v>
       </c>
       <c r="F696" t="n">
-        <v>50.66</v>
+        <v>50.553169</v>
       </c>
       <c r="G696" t="n">
         <v>472900</v>
@@ -17864,7 +17864,7 @@
         <v>50</v>
       </c>
       <c r="F697" t="n">
-        <v>50</v>
+        <v>49.894558</v>
       </c>
       <c r="G697" t="n">
         <v>176600</v>
@@ -17889,7 +17889,7 @@
         <v>49.549999</v>
       </c>
       <c r="F698" t="n">
-        <v>49.549999</v>
+        <v>49.445507</v>
       </c>
       <c r="G698" t="n">
         <v>91400</v>
@@ -17914,10 +17914,535 @@
         <v>50.299999</v>
       </c>
       <c r="F699" t="n">
-        <v>50.299999</v>
+        <v>50.193928</v>
       </c>
       <c r="G699" t="n">
         <v>85700</v>
+      </c>
+    </row>
+    <row r="700">
+      <c r="A700" t="inlineStr">
+        <is>
+          <t>2024-02-20</t>
+        </is>
+      </c>
+      <c r="B700" t="n">
+        <v>50.299999</v>
+      </c>
+      <c r="C700" t="n">
+        <v>50.740002</v>
+      </c>
+      <c r="D700" t="n">
+        <v>49.799999</v>
+      </c>
+      <c r="E700" t="n">
+        <v>49.849998</v>
+      </c>
+      <c r="F700" t="n">
+        <v>49.744873</v>
+      </c>
+      <c r="G700" t="n">
+        <v>151400</v>
+      </c>
+    </row>
+    <row r="701">
+      <c r="A701" t="inlineStr">
+        <is>
+          <t>2024-02-21</t>
+        </is>
+      </c>
+      <c r="B701" t="n">
+        <v>49.209999</v>
+      </c>
+      <c r="C701" t="n">
+        <v>50.66</v>
+      </c>
+      <c r="D701" t="n">
+        <v>49.209999</v>
+      </c>
+      <c r="E701" t="n">
+        <v>50.119999</v>
+      </c>
+      <c r="F701" t="n">
+        <v>50.014305</v>
+      </c>
+      <c r="G701" t="n">
+        <v>140800</v>
+      </c>
+    </row>
+    <row r="702">
+      <c r="A702" t="inlineStr">
+        <is>
+          <t>2024-02-22</t>
+        </is>
+      </c>
+      <c r="B702" t="n">
+        <v>50.119999</v>
+      </c>
+      <c r="C702" t="n">
+        <v>50.220001</v>
+      </c>
+      <c r="D702" t="n">
+        <v>49.150002</v>
+      </c>
+      <c r="E702" t="n">
+        <v>49.900002</v>
+      </c>
+      <c r="F702" t="n">
+        <v>49.794773</v>
+      </c>
+      <c r="G702" t="n">
+        <v>84200</v>
+      </c>
+    </row>
+    <row r="703">
+      <c r="A703" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B703" t="n">
+        <v>50</v>
+      </c>
+      <c r="C703" t="n">
+        <v>50</v>
+      </c>
+      <c r="D703" t="n">
+        <v>47.349998</v>
+      </c>
+      <c r="E703" t="n">
+        <v>47.419998</v>
+      </c>
+      <c r="F703" t="n">
+        <v>47.32</v>
+      </c>
+      <c r="G703" t="n">
+        <v>163800</v>
+      </c>
+    </row>
+    <row r="704">
+      <c r="A704" t="inlineStr">
+        <is>
+          <t>2024-02-26</t>
+        </is>
+      </c>
+      <c r="B704" t="n">
+        <v>47.529999</v>
+      </c>
+      <c r="C704" t="n">
+        <v>48.389999</v>
+      </c>
+      <c r="D704" t="n">
+        <v>47.400002</v>
+      </c>
+      <c r="E704" t="n">
+        <v>47.919998</v>
+      </c>
+      <c r="F704" t="n">
+        <v>47.919998</v>
+      </c>
+      <c r="G704" t="n">
+        <v>96300</v>
+      </c>
+    </row>
+    <row r="705">
+      <c r="A705" t="inlineStr">
+        <is>
+          <t>2024-02-27</t>
+        </is>
+      </c>
+      <c r="B705" t="n">
+        <v>47.77</v>
+      </c>
+      <c r="C705" t="n">
+        <v>48.389999</v>
+      </c>
+      <c r="D705" t="n">
+        <v>47.77</v>
+      </c>
+      <c r="E705" t="n">
+        <v>48.150002</v>
+      </c>
+      <c r="F705" t="n">
+        <v>48.150002</v>
+      </c>
+      <c r="G705" t="n">
+        <v>106900</v>
+      </c>
+    </row>
+    <row r="706">
+      <c r="A706" t="inlineStr">
+        <is>
+          <t>2024-02-28</t>
+        </is>
+      </c>
+      <c r="B706" t="n">
+        <v>48.09</v>
+      </c>
+      <c r="C706" t="n">
+        <v>48.48</v>
+      </c>
+      <c r="D706" t="n">
+        <v>47.119999</v>
+      </c>
+      <c r="E706" t="n">
+        <v>47.27</v>
+      </c>
+      <c r="F706" t="n">
+        <v>47.27</v>
+      </c>
+      <c r="G706" t="n">
+        <v>73200</v>
+      </c>
+    </row>
+    <row r="707">
+      <c r="A707" t="inlineStr">
+        <is>
+          <t>2024-02-29</t>
+        </is>
+      </c>
+      <c r="B707" t="n">
+        <v>46.900002</v>
+      </c>
+      <c r="C707" t="n">
+        <v>47.27</v>
+      </c>
+      <c r="D707" t="n">
+        <v>46.369999</v>
+      </c>
+      <c r="E707" t="n">
+        <v>46.709999</v>
+      </c>
+      <c r="F707" t="n">
+        <v>46.709999</v>
+      </c>
+      <c r="G707" t="n">
+        <v>101800</v>
+      </c>
+    </row>
+    <row r="708">
+      <c r="A708" t="inlineStr">
+        <is>
+          <t>2024-03-01</t>
+        </is>
+      </c>
+      <c r="B708" t="n">
+        <v>47.330002</v>
+      </c>
+      <c r="C708" t="n">
+        <v>47.810001</v>
+      </c>
+      <c r="D708" t="n">
+        <v>45.849998</v>
+      </c>
+      <c r="E708" t="n">
+        <v>46.119999</v>
+      </c>
+      <c r="F708" t="n">
+        <v>46.119999</v>
+      </c>
+      <c r="G708" t="n">
+        <v>201800</v>
+      </c>
+    </row>
+    <row r="709">
+      <c r="A709" t="inlineStr">
+        <is>
+          <t>2024-03-04</t>
+        </is>
+      </c>
+      <c r="B709" t="n">
+        <v>46.889999</v>
+      </c>
+      <c r="C709" t="n">
+        <v>47.040001</v>
+      </c>
+      <c r="D709" t="n">
+        <v>46.400002</v>
+      </c>
+      <c r="E709" t="n">
+        <v>46.810001</v>
+      </c>
+      <c r="F709" t="n">
+        <v>46.810001</v>
+      </c>
+      <c r="G709" t="n">
+        <v>138500</v>
+      </c>
+    </row>
+    <row r="710">
+      <c r="A710" t="inlineStr">
+        <is>
+          <t>2024-03-05</t>
+        </is>
+      </c>
+      <c r="B710" t="n">
+        <v>46.400002</v>
+      </c>
+      <c r="C710" t="n">
+        <v>46.400002</v>
+      </c>
+      <c r="D710" t="n">
+        <v>44.380001</v>
+      </c>
+      <c r="E710" t="n">
+        <v>44.700001</v>
+      </c>
+      <c r="F710" t="n">
+        <v>44.700001</v>
+      </c>
+      <c r="G710" t="n">
+        <v>105500</v>
+      </c>
+    </row>
+    <row r="711">
+      <c r="A711" t="inlineStr">
+        <is>
+          <t>2024-03-06</t>
+        </is>
+      </c>
+      <c r="B711" t="n">
+        <v>44.860001</v>
+      </c>
+      <c r="C711" t="n">
+        <v>44.994999</v>
+      </c>
+      <c r="D711" t="n">
+        <v>43.540001</v>
+      </c>
+      <c r="E711" t="n">
+        <v>44.09</v>
+      </c>
+      <c r="F711" t="n">
+        <v>44.09</v>
+      </c>
+      <c r="G711" t="n">
+        <v>107600</v>
+      </c>
+    </row>
+    <row r="712">
+      <c r="A712" t="inlineStr">
+        <is>
+          <t>2024-03-07</t>
+        </is>
+      </c>
+      <c r="B712" t="n">
+        <v>43.779999</v>
+      </c>
+      <c r="C712" t="n">
+        <v>45.25</v>
+      </c>
+      <c r="D712" t="n">
+        <v>43.775002</v>
+      </c>
+      <c r="E712" t="n">
+        <v>44.580002</v>
+      </c>
+      <c r="F712" t="n">
+        <v>44.580002</v>
+      </c>
+      <c r="G712" t="n">
+        <v>323100</v>
+      </c>
+    </row>
+    <row r="713">
+      <c r="A713" t="inlineStr">
+        <is>
+          <t>2024-03-08</t>
+        </is>
+      </c>
+      <c r="B713" t="n">
+        <v>45.02</v>
+      </c>
+      <c r="C713" t="n">
+        <v>45.48</v>
+      </c>
+      <c r="D713" t="n">
+        <v>44.380001</v>
+      </c>
+      <c r="E713" t="n">
+        <v>44.689999</v>
+      </c>
+      <c r="F713" t="n">
+        <v>44.689999</v>
+      </c>
+      <c r="G713" t="n">
+        <v>113700</v>
+      </c>
+    </row>
+    <row r="714">
+      <c r="A714" t="inlineStr">
+        <is>
+          <t>2024-03-11</t>
+        </is>
+      </c>
+      <c r="B714" t="n">
+        <v>44.360001</v>
+      </c>
+      <c r="C714" t="n">
+        <v>45.096001</v>
+      </c>
+      <c r="D714" t="n">
+        <v>43.981998</v>
+      </c>
+      <c r="E714" t="n">
+        <v>44.57</v>
+      </c>
+      <c r="F714" t="n">
+        <v>44.57</v>
+      </c>
+      <c r="G714" t="n">
+        <v>85500</v>
+      </c>
+    </row>
+    <row r="715">
+      <c r="A715" t="inlineStr">
+        <is>
+          <t>2024-03-12</t>
+        </is>
+      </c>
+      <c r="B715" t="n">
+        <v>45.389999</v>
+      </c>
+      <c r="C715" t="n">
+        <v>45.57</v>
+      </c>
+      <c r="D715" t="n">
+        <v>45.02</v>
+      </c>
+      <c r="E715" t="n">
+        <v>45.32</v>
+      </c>
+      <c r="F715" t="n">
+        <v>45.32</v>
+      </c>
+      <c r="G715" t="n">
+        <v>41000</v>
+      </c>
+    </row>
+    <row r="716">
+      <c r="A716" t="inlineStr">
+        <is>
+          <t>2024-03-13</t>
+        </is>
+      </c>
+      <c r="B716" t="n">
+        <v>45.650002</v>
+      </c>
+      <c r="C716" t="n">
+        <v>45.939999</v>
+      </c>
+      <c r="D716" t="n">
+        <v>45.259998</v>
+      </c>
+      <c r="E716" t="n">
+        <v>45.810001</v>
+      </c>
+      <c r="F716" t="n">
+        <v>45.810001</v>
+      </c>
+      <c r="G716" t="n">
+        <v>157300</v>
+      </c>
+    </row>
+    <row r="717">
+      <c r="A717" t="inlineStr">
+        <is>
+          <t>2024-03-14</t>
+        </is>
+      </c>
+      <c r="B717" t="n">
+        <v>46.330002</v>
+      </c>
+      <c r="C717" t="n">
+        <v>47.939999</v>
+      </c>
+      <c r="D717" t="n">
+        <v>46.330002</v>
+      </c>
+      <c r="E717" t="n">
+        <v>47.889999</v>
+      </c>
+      <c r="F717" t="n">
+        <v>47.889999</v>
+      </c>
+      <c r="G717" t="n">
+        <v>105900</v>
+      </c>
+    </row>
+    <row r="718">
+      <c r="A718" t="inlineStr">
+        <is>
+          <t>2024-03-15</t>
+        </is>
+      </c>
+      <c r="B718" t="n">
+        <v>47.639999</v>
+      </c>
+      <c r="C718" t="n">
+        <v>47.888</v>
+      </c>
+      <c r="D718" t="n">
+        <v>47.599998</v>
+      </c>
+      <c r="E718" t="n">
+        <v>47.740002</v>
+      </c>
+      <c r="F718" t="n">
+        <v>47.740002</v>
+      </c>
+      <c r="G718" t="n">
+        <v>49200</v>
+      </c>
+    </row>
+    <row r="719">
+      <c r="A719" t="inlineStr">
+        <is>
+          <t>2024-03-18</t>
+        </is>
+      </c>
+      <c r="B719" t="n">
+        <v>47.860001</v>
+      </c>
+      <c r="C719" t="n">
+        <v>48.490002</v>
+      </c>
+      <c r="D719" t="n">
+        <v>47.68</v>
+      </c>
+      <c r="E719" t="n">
+        <v>48.119999</v>
+      </c>
+      <c r="F719" t="n">
+        <v>48.119999</v>
+      </c>
+      <c r="G719" t="n">
+        <v>34800</v>
+      </c>
+    </row>
+    <row r="720">
+      <c r="A720" t="inlineStr">
+        <is>
+          <t>2024-03-19</t>
+        </is>
+      </c>
+      <c r="B720" t="n">
+        <v>47.549999</v>
+      </c>
+      <c r="C720" t="n">
+        <v>48.355</v>
+      </c>
+      <c r="D720" t="n">
+        <v>47.509998</v>
+      </c>
+      <c r="E720" t="n">
+        <v>47.880001</v>
+      </c>
+      <c r="F720" t="n">
+        <v>47.880001</v>
+      </c>
+      <c r="G720" t="n">
+        <v>99800</v>
       </c>
     </row>
   </sheetData>
